--- a/ModelOutputonunseendata.xlsx
+++ b/ModelOutputonunseendata.xlsx
@@ -553,7 +553,7 @@
         <v>12898</v>
       </c>
       <c r="M2" t="n">
-        <v>15416.26166666667</v>
+        <v>15523.7578125</v>
       </c>
     </row>
     <row r="3">
@@ -614,7 +614,7 @@
         <v>10851</v>
       </c>
       <c r="M3" t="n">
-        <v>11621.7</v>
+        <v>9559.4755859375</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
         <v>5704</v>
       </c>
       <c r="M4" t="n">
-        <v>6439.66</v>
+        <v>8236.115234375</v>
       </c>
     </row>
     <row r="5">
@@ -736,7 +736,7 @@
         <v>11598</v>
       </c>
       <c r="M5" t="n">
-        <v>6002.26</v>
+        <v>6067.00244140625</v>
       </c>
     </row>
     <row r="6">
@@ -797,7 +797,7 @@
         <v>9149</v>
       </c>
       <c r="M6" t="n">
-        <v>9079.504999999999</v>
+        <v>8977.36328125</v>
       </c>
     </row>
     <row r="7">
@@ -858,7 +858,7 @@
         <v>4145</v>
       </c>
       <c r="M7" t="n">
-        <v>4132.9</v>
+        <v>4707.16455078125</v>
       </c>
     </row>
     <row r="8">
@@ -919,7 +919,7 @@
         <v>6195</v>
       </c>
       <c r="M8" t="n">
-        <v>5875.01</v>
+        <v>6410.2607421875</v>
       </c>
     </row>
     <row r="9">
@@ -980,7 +980,7 @@
         <v>6979</v>
       </c>
       <c r="M9" t="n">
-        <v>8279.07</v>
+        <v>7666.2421875</v>
       </c>
     </row>
     <row r="10">
@@ -1041,7 +1041,7 @@
         <v>7276</v>
       </c>
       <c r="M10" t="n">
-        <v>6819.610333333333</v>
+        <v>6808.79736328125</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1102,7 @@
         <v>4760</v>
       </c>
       <c r="M11" t="n">
-        <v>5594.897142857143</v>
+        <v>5703.42236328125</v>
       </c>
     </row>
     <row r="12">
@@ -1163,7 +1163,7 @@
         <v>11982</v>
       </c>
       <c r="M12" t="n">
-        <v>11982</v>
+        <v>12293.8115234375</v>
       </c>
     </row>
     <row r="13">
@@ -1224,7 +1224,7 @@
         <v>5277</v>
       </c>
       <c r="M13" t="n">
-        <v>4143.123333333333</v>
+        <v>4531.06787109375</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1285,7 @@
         <v>8372</v>
       </c>
       <c r="M14" t="n">
-        <v>8409.610000000001</v>
+        <v>8558.201171875</v>
       </c>
     </row>
     <row r="15">
@@ -1346,7 +1346,7 @@
         <v>4226</v>
       </c>
       <c r="M15" t="n">
-        <v>4221.45</v>
+        <v>3697.712158203125</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1407,7 @@
         <v>3597</v>
       </c>
       <c r="M16" t="n">
-        <v>3603.42</v>
+        <v>3691.91064453125</v>
       </c>
     </row>
     <row r="17">
@@ -1468,7 +1468,7 @@
         <v>7005</v>
       </c>
       <c r="M17" t="n">
-        <v>7631.15</v>
+        <v>8281.892578125</v>
       </c>
     </row>
     <row r="18">
@@ -1529,7 +1529,7 @@
         <v>8018</v>
       </c>
       <c r="M18" t="n">
-        <v>9728.32</v>
+        <v>8971.5068359375</v>
       </c>
     </row>
     <row r="19">
@@ -1590,7 +1590,7 @@
         <v>10577</v>
       </c>
       <c r="M19" t="n">
-        <v>11823.48</v>
+        <v>12538.0947265625</v>
       </c>
     </row>
     <row r="20">
@@ -1651,7 +1651,7 @@
         <v>11507</v>
       </c>
       <c r="M20" t="n">
-        <v>12289.48292857143</v>
+        <v>12396.744140625</v>
       </c>
     </row>
     <row r="21">
@@ -1712,7 +1712,7 @@
         <v>9653</v>
       </c>
       <c r="M21" t="n">
-        <v>10479.41</v>
+        <v>9574.673828125</v>
       </c>
     </row>
     <row r="22">
@@ -1773,7 +1773,7 @@
         <v>4160</v>
       </c>
       <c r="M22" t="n">
-        <v>7526.053333333332</v>
+        <v>6699.578125</v>
       </c>
     </row>
     <row r="23">
@@ -1834,7 +1834,7 @@
         <v>14714</v>
       </c>
       <c r="M23" t="n">
-        <v>11757.938</v>
+        <v>12573.62109375</v>
       </c>
     </row>
     <row r="24">
@@ -1895,7 +1895,7 @@
         <v>5678</v>
       </c>
       <c r="M24" t="n">
-        <v>3648.538</v>
+        <v>4276.2900390625</v>
       </c>
     </row>
     <row r="25">
@@ -1956,7 +1956,7 @@
         <v>13873</v>
       </c>
       <c r="M25" t="n">
-        <v>12958.62</v>
+        <v>13323.9453125</v>
       </c>
     </row>
     <row r="26">
@@ -2017,7 +2017,7 @@
         <v>11264</v>
       </c>
       <c r="M26" t="n">
-        <v>10445.93</v>
+        <v>9403.359375</v>
       </c>
     </row>
     <row r="27">
@@ -2078,7 +2078,7 @@
         <v>11134</v>
       </c>
       <c r="M27" t="n">
-        <v>13045.44416666667</v>
+        <v>12323.7392578125</v>
       </c>
     </row>
     <row r="28">
@@ -2139,7 +2139,7 @@
         <v>6151</v>
       </c>
       <c r="M28" t="n">
-        <v>6524.17</v>
+        <v>6619.42626953125</v>
       </c>
     </row>
     <row r="29">
@@ -2200,7 +2200,7 @@
         <v>10844</v>
       </c>
       <c r="M29" t="n">
-        <v>14064.57166666667</v>
+        <v>13552.5068359375</v>
       </c>
     </row>
     <row r="30">
@@ -2261,7 +2261,7 @@
         <v>13014</v>
       </c>
       <c r="M30" t="n">
-        <v>10732.64733333333</v>
+        <v>11361.3974609375</v>
       </c>
     </row>
     <row r="31">
@@ -2322,7 +2322,7 @@
         <v>4995</v>
       </c>
       <c r="M31" t="n">
-        <v>7084.873333333333</v>
+        <v>6969.94384765625</v>
       </c>
     </row>
     <row r="32">
@@ -2383,7 +2383,7 @@
         <v>4174</v>
       </c>
       <c r="M32" t="n">
-        <v>4615.24</v>
+        <v>4860.439453125</v>
       </c>
     </row>
     <row r="33">
@@ -2444,7 +2444,7 @@
         <v>12841</v>
       </c>
       <c r="M33" t="n">
-        <v>9801.200000000001</v>
+        <v>8843.177734375</v>
       </c>
     </row>
     <row r="34">
@@ -2505,7 +2505,7 @@
         <v>13067</v>
       </c>
       <c r="M34" t="n">
-        <v>11732.097</v>
+        <v>11984.884765625</v>
       </c>
     </row>
     <row r="35">
@@ -2566,7 +2566,7 @@
         <v>10262</v>
       </c>
       <c r="M35" t="n">
-        <v>10326.04</v>
+        <v>10791.3564453125</v>
       </c>
     </row>
     <row r="36">
@@ -2627,7 +2627,7 @@
         <v>4423</v>
       </c>
       <c r="M36" t="n">
-        <v>4101.96</v>
+        <v>4191.9267578125</v>
       </c>
     </row>
     <row r="37">
@@ -2688,7 +2688,7 @@
         <v>8586</v>
       </c>
       <c r="M37" t="n">
-        <v>10609.45316666666</v>
+        <v>11058.0244140625</v>
       </c>
     </row>
     <row r="38">
@@ -2749,7 +2749,7 @@
         <v>9663</v>
       </c>
       <c r="M38" t="n">
-        <v>11019.77333333333</v>
+        <v>11418.9609375</v>
       </c>
     </row>
     <row r="39">
@@ -2810,7 +2810,7 @@
         <v>6069</v>
       </c>
       <c r="M39" t="n">
-        <v>6318.8</v>
+        <v>5939.42578125</v>
       </c>
     </row>
     <row r="40">
@@ -2871,7 +2871,7 @@
         <v>4667</v>
       </c>
       <c r="M40" t="n">
-        <v>4662.35</v>
+        <v>5053.88671875</v>
       </c>
     </row>
     <row r="41">
@@ -2932,7 +2932,7 @@
         <v>12373</v>
       </c>
       <c r="M41" t="n">
-        <v>15044.42833333333</v>
+        <v>13876.86328125</v>
       </c>
     </row>
     <row r="42">
@@ -2993,7 +2993,7 @@
         <v>13941</v>
       </c>
       <c r="M42" t="n">
-        <v>9573.823333333334</v>
+        <v>10915.421875</v>
       </c>
     </row>
     <row r="43">
@@ -3054,7 +3054,7 @@
         <v>3175</v>
       </c>
       <c r="M43" t="n">
-        <v>3690.62</v>
+        <v>3056.63037109375</v>
       </c>
     </row>
     <row r="44">
@@ -3115,7 +3115,7 @@
         <v>8372</v>
       </c>
       <c r="M44" t="n">
-        <v>8452.23</v>
+        <v>8219.578125</v>
       </c>
     </row>
     <row r="45">
@@ -3176,7 +3176,7 @@
         <v>5613</v>
       </c>
       <c r="M45" t="n">
-        <v>5597.08</v>
+        <v>5468.66259765625</v>
       </c>
     </row>
     <row r="46">
@@ -3237,7 +3237,7 @@
         <v>7144</v>
       </c>
       <c r="M46" t="n">
-        <v>6992.14</v>
+        <v>6831.04541015625</v>
       </c>
     </row>
     <row r="47">
@@ -3298,7 +3298,7 @@
         <v>14571</v>
       </c>
       <c r="M47" t="n">
-        <v>12716.03483333333</v>
+        <v>13014.0859375</v>
       </c>
     </row>
     <row r="48">
@@ -3359,7 +3359,7 @@
         <v>5277</v>
       </c>
       <c r="M48" t="n">
-        <v>4886.508333333334</v>
+        <v>5151.09375</v>
       </c>
     </row>
     <row r="49">
@@ -3420,7 +3420,7 @@
         <v>2759</v>
       </c>
       <c r="M49" t="n">
-        <v>6249.646666666667</v>
+        <v>6337.47509765625</v>
       </c>
     </row>
     <row r="50">
@@ -3481,7 +3481,7 @@
         <v>5192</v>
       </c>
       <c r="M50" t="n">
-        <v>5497.68</v>
+        <v>5893.87744140625</v>
       </c>
     </row>
     <row r="51">
@@ -3542,7 +3542,7 @@
         <v>14714</v>
       </c>
       <c r="M51" t="n">
-        <v>12609.42333333333</v>
+        <v>14469.9033203125</v>
       </c>
     </row>
     <row r="52">
@@ -3603,7 +3603,7 @@
         <v>10336</v>
       </c>
       <c r="M52" t="n">
-        <v>9069.82</v>
+        <v>9102.0673828125</v>
       </c>
     </row>
     <row r="53">
@@ -3664,7 +3664,7 @@
         <v>31945</v>
       </c>
       <c r="M53" t="n">
-        <v>6667.89</v>
+        <v>4674.18212890625</v>
       </c>
     </row>
     <row r="54">
@@ -3725,7 +3725,7 @@
         <v>7064</v>
       </c>
       <c r="M54" t="n">
-        <v>7666.346666666666</v>
+        <v>7940.47216796875</v>
       </c>
     </row>
     <row r="55">
@@ -3786,7 +3786,7 @@
         <v>14441</v>
       </c>
       <c r="M55" t="n">
-        <v>13537.05333333333</v>
+        <v>14480.9833984375</v>
       </c>
     </row>
     <row r="56">
@@ -3847,7 +3847,7 @@
         <v>17493</v>
       </c>
       <c r="M56" t="n">
-        <v>17790.10416666667</v>
+        <v>17894.689453125</v>
       </c>
     </row>
     <row r="57">
@@ -3908,7 +3908,7 @@
         <v>10844</v>
       </c>
       <c r="M57" t="n">
-        <v>11167.37633333333</v>
+        <v>11018.7890625</v>
       </c>
     </row>
     <row r="58">
@@ -3969,7 +3969,7 @@
         <v>2753</v>
       </c>
       <c r="M58" t="n">
-        <v>2541.323333333333</v>
+        <v>2440.408447265625</v>
       </c>
     </row>
     <row r="59">
@@ -4030,7 +4030,7 @@
         <v>12898</v>
       </c>
       <c r="M59" t="n">
-        <v>12835.01</v>
+        <v>12791.90234375</v>
       </c>
     </row>
     <row r="60">
@@ -4091,7 +4091,7 @@
         <v>7229</v>
       </c>
       <c r="M60" t="n">
-        <v>5414.725833333333</v>
+        <v>5159.48193359375</v>
       </c>
     </row>
     <row r="61">
@@ -4152,7 +4152,7 @@
         <v>8603</v>
       </c>
       <c r="M61" t="n">
-        <v>10409.05</v>
+        <v>9997.6669921875</v>
       </c>
     </row>
     <row r="62">
@@ -4213,7 +4213,7 @@
         <v>15129</v>
       </c>
       <c r="M62" t="n">
-        <v>14814</v>
+        <v>14588.216796875</v>
       </c>
     </row>
     <row r="63">
@@ -4274,7 +4274,7 @@
         <v>18804</v>
       </c>
       <c r="M63" t="n">
-        <v>17087.34</v>
+        <v>16770.904296875</v>
       </c>
     </row>
     <row r="64">
@@ -4335,7 +4335,7 @@
         <v>7452</v>
       </c>
       <c r="M64" t="n">
-        <v>6503.95</v>
+        <v>6173.666015625</v>
       </c>
     </row>
     <row r="65">
@@ -4396,7 +4396,7 @@
         <v>3971</v>
       </c>
       <c r="M65" t="n">
-        <v>4217.546999999999</v>
+        <v>4240.451171875</v>
       </c>
     </row>
     <row r="66">
@@ -4457,7 +4457,7 @@
         <v>3943</v>
       </c>
       <c r="M66" t="n">
-        <v>4169.52</v>
+        <v>4099.71630859375</v>
       </c>
     </row>
     <row r="67">
@@ -4518,7 +4518,7 @@
         <v>9165</v>
       </c>
       <c r="M67" t="n">
-        <v>8414.870000000001</v>
+        <v>8798.53125</v>
       </c>
     </row>
     <row r="68">
@@ -4579,7 +4579,7 @@
         <v>13014</v>
       </c>
       <c r="M68" t="n">
-        <v>12135.48595238095</v>
+        <v>12503.1640625</v>
       </c>
     </row>
     <row r="69">
@@ -4640,7 +4640,7 @@
         <v>3625</v>
       </c>
       <c r="M69" t="n">
-        <v>3688.131333333334</v>
+        <v>4055.897705078125</v>
       </c>
     </row>
     <row r="70">
@@ -4701,7 +4701,7 @@
         <v>10262</v>
       </c>
       <c r="M70" t="n">
-        <v>10262</v>
+        <v>10435.97265625</v>
       </c>
     </row>
     <row r="71">
@@ -4762,7 +4762,7 @@
         <v>14388</v>
       </c>
       <c r="M71" t="n">
-        <v>12583.91583333333</v>
+        <v>11956.009765625</v>
       </c>
     </row>
     <row r="72">
@@ -4823,7 +4823,7 @@
         <v>15058</v>
       </c>
       <c r="M72" t="n">
-        <v>14550.64</v>
+        <v>13180.5654296875</v>
       </c>
     </row>
     <row r="73">
@@ -4884,7 +4884,7 @@
         <v>14882</v>
       </c>
       <c r="M73" t="n">
-        <v>13670.36</v>
+        <v>13307.0537109375</v>
       </c>
     </row>
     <row r="74">
@@ -4945,7 +4945,7 @@
         <v>4591</v>
       </c>
       <c r="M74" t="n">
-        <v>4474.63</v>
+        <v>4601.7958984375</v>
       </c>
     </row>
     <row r="75">
@@ -5006,7 +5006,7 @@
         <v>3841</v>
       </c>
       <c r="M75" t="n">
-        <v>3867.145333333333</v>
+        <v>3941.83642578125</v>
       </c>
     </row>
     <row r="76">
@@ -5067,7 +5067,7 @@
         <v>14781</v>
       </c>
       <c r="M76" t="n">
-        <v>11571.66833333333</v>
+        <v>11710.2138671875</v>
       </c>
     </row>
     <row r="77">
@@ -5128,7 +5128,7 @@
         <v>3841</v>
       </c>
       <c r="M77" t="n">
-        <v>3863.397999999999</v>
+        <v>3542.40966796875</v>
       </c>
     </row>
     <row r="78">
@@ -5189,7 +5189,7 @@
         <v>13377</v>
       </c>
       <c r="M78" t="n">
-        <v>13333.24</v>
+        <v>13293.3603515625</v>
       </c>
     </row>
     <row r="79">
@@ -5250,7 +5250,7 @@
         <v>13014</v>
       </c>
       <c r="M79" t="n">
-        <v>11013.765</v>
+        <v>11242.314453125</v>
       </c>
     </row>
     <row r="80">
@@ -5311,7 +5311,7 @@
         <v>14848</v>
       </c>
       <c r="M80" t="n">
-        <v>14892.44</v>
+        <v>13537.52734375</v>
       </c>
     </row>
     <row r="81">
@@ -5372,7 +5372,7 @@
         <v>4145</v>
       </c>
       <c r="M81" t="n">
-        <v>4173.2</v>
+        <v>4047.43115234375</v>
       </c>
     </row>
     <row r="82">
@@ -5433,7 +5433,7 @@
         <v>3850</v>
       </c>
       <c r="M82" t="n">
-        <v>3847.47</v>
+        <v>4204.10498046875</v>
       </c>
     </row>
     <row r="83">
@@ -5494,7 +5494,7 @@
         <v>10413</v>
       </c>
       <c r="M83" t="n">
-        <v>10744.95</v>
+        <v>10873.53515625</v>
       </c>
     </row>
     <row r="84">
@@ -5555,7 +5555,7 @@
         <v>6104</v>
       </c>
       <c r="M84" t="n">
-        <v>6539.81</v>
+        <v>8461.1865234375</v>
       </c>
     </row>
     <row r="85">
@@ -5616,7 +5616,7 @@
         <v>3943</v>
       </c>
       <c r="M85" t="n">
-        <v>4379.75</v>
+        <v>4116.26806640625</v>
       </c>
     </row>
     <row r="86">
@@ -5677,7 +5677,7 @@
         <v>8529</v>
       </c>
       <c r="M86" t="n">
-        <v>11508.49516666667</v>
+        <v>11791.25</v>
       </c>
     </row>
     <row r="87">
@@ -5738,7 +5738,7 @@
         <v>10262</v>
       </c>
       <c r="M87" t="n">
-        <v>10366.47</v>
+        <v>10430.8740234375</v>
       </c>
     </row>
     <row r="88">
@@ -5799,7 +5799,7 @@
         <v>14151</v>
       </c>
       <c r="M88" t="n">
-        <v>13056.51916666667</v>
+        <v>13020.6337890625</v>
       </c>
     </row>
     <row r="89">
@@ -5860,7 +5860,7 @@
         <v>5192</v>
       </c>
       <c r="M89" t="n">
-        <v>6558.31</v>
+        <v>5695.25439453125</v>
       </c>
     </row>
     <row r="90">
@@ -5921,7 +5921,7 @@
         <v>9663</v>
       </c>
       <c r="M90" t="n">
-        <v>11881.5725</v>
+        <v>11571.25</v>
       </c>
     </row>
     <row r="91">
@@ -5982,7 +5982,7 @@
         <v>4632</v>
       </c>
       <c r="M91" t="n">
-        <v>4698.508333333333</v>
+        <v>4228.9892578125</v>
       </c>
     </row>
     <row r="92">
@@ -6043,7 +6043,7 @@
         <v>5073</v>
       </c>
       <c r="M92" t="n">
-        <v>5455.73</v>
+        <v>4729.15234375</v>
       </c>
     </row>
     <row r="93">
@@ -6104,7 +6104,7 @@
         <v>9526</v>
       </c>
       <c r="M93" t="n">
-        <v>8298.07</v>
+        <v>8620.6162109375</v>
       </c>
     </row>
     <row r="94">
@@ -6165,7 +6165,7 @@
         <v>4423</v>
       </c>
       <c r="M94" t="n">
-        <v>4322.99</v>
+        <v>4261.07470703125</v>
       </c>
     </row>
     <row r="95">
@@ -6226,7 +6226,7 @@
         <v>2227</v>
       </c>
       <c r="M95" t="n">
-        <v>2229.1</v>
+        <v>2802.62255859375</v>
       </c>
     </row>
     <row r="96">
@@ -6287,7 +6287,7 @@
         <v>5403</v>
       </c>
       <c r="M96" t="n">
-        <v>5469.7875</v>
+        <v>5850.15380859375</v>
       </c>
     </row>
     <row r="97">
@@ -6348,7 +6348,7 @@
         <v>3858</v>
       </c>
       <c r="M97" t="n">
-        <v>4077.964</v>
+        <v>4385.18994140625</v>
       </c>
     </row>
     <row r="98">
@@ -6409,7 +6409,7 @@
         <v>18752</v>
       </c>
       <c r="M98" t="n">
-        <v>15887.8515</v>
+        <v>16732.400390625</v>
       </c>
     </row>
     <row r="99">
@@ -6470,7 +6470,7 @@
         <v>9663</v>
       </c>
       <c r="M99" t="n">
-        <v>13752.49833333333</v>
+        <v>12709.189453125</v>
       </c>
     </row>
     <row r="100">
@@ -6531,7 +6531,7 @@
         <v>12819</v>
       </c>
       <c r="M100" t="n">
-        <v>13075.50433333334</v>
+        <v>12771.8095703125</v>
       </c>
     </row>
     <row r="101">
@@ -6592,7 +6592,7 @@
         <v>6883</v>
       </c>
       <c r="M101" t="n">
-        <v>10808.38416666667</v>
+        <v>10511.552734375</v>
       </c>
     </row>
     <row r="102">
@@ -6653,7 +6653,7 @@
         <v>7198</v>
       </c>
       <c r="M102" t="n">
-        <v>7361.456249999999</v>
+        <v>7358.568359375</v>
       </c>
     </row>
     <row r="103">
@@ -6714,7 +6714,7 @@
         <v>7801</v>
       </c>
       <c r="M103" t="n">
-        <v>9198.121666666666</v>
+        <v>8456.595703125</v>
       </c>
     </row>
     <row r="104">
@@ -6775,7 +6775,7 @@
         <v>4823</v>
       </c>
       <c r="M104" t="n">
-        <v>4928.37</v>
+        <v>5333.24560546875</v>
       </c>
     </row>
     <row r="105">
@@ -6836,7 +6836,7 @@
         <v>9663</v>
       </c>
       <c r="M105" t="n">
-        <v>13337.69566666667</v>
+        <v>12038.6435546875</v>
       </c>
     </row>
     <row r="106">
@@ -6897,7 +6897,7 @@
         <v>12121</v>
       </c>
       <c r="M106" t="n">
-        <v>12792.25283333333</v>
+        <v>12891.7998046875</v>
       </c>
     </row>
     <row r="107">
@@ -6958,7 +6958,7 @@
         <v>8085</v>
       </c>
       <c r="M107" t="n">
-        <v>8853.43</v>
+        <v>8407.19140625</v>
       </c>
     </row>
     <row r="108">
@@ -7019,7 +7019,7 @@
         <v>8662</v>
       </c>
       <c r="M108" t="n">
-        <v>8019.355</v>
+        <v>10310.578125</v>
       </c>
     </row>
     <row r="109">
@@ -7080,7 +7080,7 @@
         <v>6017</v>
       </c>
       <c r="M109" t="n">
-        <v>9940.748166666668</v>
+        <v>9599.86328125</v>
       </c>
     </row>
     <row r="110">
@@ -7141,7 +7141,7 @@
         <v>3859</v>
       </c>
       <c r="M110" t="n">
-        <v>3660.124761904762</v>
+        <v>3205.03173828125</v>
       </c>
     </row>
     <row r="111">
@@ -7202,7 +7202,7 @@
         <v>7564</v>
       </c>
       <c r="M111" t="n">
-        <v>7710.21</v>
+        <v>7301.56396484375</v>
       </c>
     </row>
     <row r="112">
@@ -7263,7 +7263,7 @@
         <v>3919</v>
       </c>
       <c r="M112" t="n">
-        <v>3826.1</v>
+        <v>3581.29150390625</v>
       </c>
     </row>
     <row r="113">
@@ -7324,7 +7324,7 @@
         <v>15129</v>
       </c>
       <c r="M113" t="n">
-        <v>14814</v>
+        <v>14588.216796875</v>
       </c>
     </row>
     <row r="114">
@@ -7385,7 +7385,7 @@
         <v>26890</v>
       </c>
       <c r="M114" t="n">
-        <v>25623.69</v>
+        <v>28835.9140625</v>
       </c>
     </row>
     <row r="115">
@@ -7446,7 +7446,7 @@
         <v>5443</v>
       </c>
       <c r="M115" t="n">
-        <v>7964.21</v>
+        <v>6645.64404296875</v>
       </c>
     </row>
     <row r="116">
@@ -7507,7 +7507,7 @@
         <v>6860</v>
       </c>
       <c r="M116" t="n">
-        <v>7011.474</v>
+        <v>6715.0087890625</v>
       </c>
     </row>
     <row r="117">
@@ -7568,7 +7568,7 @@
         <v>13364</v>
       </c>
       <c r="M117" t="n">
-        <v>12739.7075</v>
+        <v>10193.599609375</v>
       </c>
     </row>
     <row r="118">
@@ -7629,7 +7629,7 @@
         <v>12239</v>
       </c>
       <c r="M118" t="n">
-        <v>15023.06</v>
+        <v>13539.0498046875</v>
       </c>
     </row>
     <row r="119">
@@ -7690,7 +7690,7 @@
         <v>4966</v>
       </c>
       <c r="M119" t="n">
-        <v>5106.35</v>
+        <v>5646.6533203125</v>
       </c>
     </row>
     <row r="120">
@@ -7751,7 +7751,7 @@
         <v>6144</v>
       </c>
       <c r="M120" t="n">
-        <v>8175.280833333332</v>
+        <v>8006.97705078125</v>
       </c>
     </row>
     <row r="121">
@@ -7812,7 +7812,7 @@
         <v>12373</v>
       </c>
       <c r="M121" t="n">
-        <v>13552.37316666667</v>
+        <v>13466.66796875</v>
       </c>
     </row>
     <row r="122">
@@ -7873,7 +7873,7 @@
         <v>10835</v>
       </c>
       <c r="M122" t="n">
-        <v>12247.73</v>
+        <v>12019.9521484375</v>
       </c>
     </row>
     <row r="123">
@@ -7934,7 +7934,7 @@
         <v>7952</v>
       </c>
       <c r="M123" t="n">
-        <v>7504.22</v>
+        <v>7819.3154296875</v>
       </c>
     </row>
     <row r="124">
@@ -7995,7 +7995,7 @@
         <v>3419</v>
       </c>
       <c r="M124" t="n">
-        <v>3841.96</v>
+        <v>3925.509765625</v>
       </c>
     </row>
     <row r="125">
@@ -8056,7 +8056,7 @@
         <v>10197</v>
       </c>
       <c r="M125" t="n">
-        <v>10321.28</v>
+        <v>9994.3388671875</v>
       </c>
     </row>
     <row r="126">
@@ -8117,7 +8117,7 @@
         <v>5883</v>
       </c>
       <c r="M126" t="n">
-        <v>6381.94</v>
+        <v>6347.67236328125</v>
       </c>
     </row>
     <row r="127">
@@ -8178,7 +8178,7 @@
         <v>4667</v>
       </c>
       <c r="M127" t="n">
-        <v>4667</v>
+        <v>4871.1787109375</v>
       </c>
     </row>
     <row r="128">
@@ -8239,7 +8239,7 @@
         <v>6223</v>
       </c>
       <c r="M128" t="n">
-        <v>8235.285</v>
+        <v>5690.72900390625</v>
       </c>
     </row>
     <row r="129">
@@ -8300,7 +8300,7 @@
         <v>7757</v>
       </c>
       <c r="M129" t="n">
-        <v>10435.62333333333</v>
+        <v>11337.041015625</v>
       </c>
     </row>
     <row r="130">
@@ -8361,7 +8361,7 @@
         <v>11873</v>
       </c>
       <c r="M130" t="n">
-        <v>15114.21</v>
+        <v>13022.142578125</v>
       </c>
     </row>
     <row r="131">
@@ -8422,7 +8422,7 @@
         <v>10844</v>
       </c>
       <c r="M131" t="n">
-        <v>12727.20383333333</v>
+        <v>12639.615234375</v>
       </c>
     </row>
     <row r="132">
@@ -8483,7 +8483,7 @@
         <v>7189</v>
       </c>
       <c r="M132" t="n">
-        <v>6241.47</v>
+        <v>6792.85009765625</v>
       </c>
     </row>
     <row r="133">
@@ -8544,7 +8544,7 @@
         <v>10262</v>
       </c>
       <c r="M133" t="n">
-        <v>10294.44</v>
+        <v>10553.833984375</v>
       </c>
     </row>
     <row r="134">
@@ -8605,7 +8605,7 @@
         <v>5989</v>
       </c>
       <c r="M134" t="n">
-        <v>4181.14</v>
+        <v>4662.9033203125</v>
       </c>
     </row>
     <row r="135">
@@ -8666,7 +8666,7 @@
         <v>2227</v>
       </c>
       <c r="M135" t="n">
-        <v>2283.7</v>
+        <v>2675.881103515625</v>
       </c>
     </row>
     <row r="136">
@@ -8727,7 +8727,7 @@
         <v>4995</v>
       </c>
       <c r="M136" t="n">
-        <v>7556.341666666667</v>
+        <v>6539.98193359375</v>
       </c>
     </row>
     <row r="137">
@@ -8788,7 +8788,7 @@
         <v>14231</v>
       </c>
       <c r="M137" t="n">
-        <v>11405.86733333333</v>
+        <v>11609.2197265625</v>
       </c>
     </row>
     <row r="138">
@@ -8849,7 +8849,7 @@
         <v>10844</v>
       </c>
       <c r="M138" t="n">
-        <v>11165.615</v>
+        <v>11414.0322265625</v>
       </c>
     </row>
     <row r="139">
@@ -8910,7 +8910,7 @@
         <v>5628</v>
       </c>
       <c r="M139" t="n">
-        <v>12297.25</v>
+        <v>11379.853515625</v>
       </c>
     </row>
     <row r="140">
@@ -8971,7 +8971,7 @@
         <v>10844</v>
       </c>
       <c r="M140" t="n">
-        <v>13550.38</v>
+        <v>12473.056640625</v>
       </c>
     </row>
     <row r="141">
@@ -9032,7 +9032,7 @@
         <v>8937</v>
       </c>
       <c r="M141" t="n">
-        <v>7936.99</v>
+        <v>7981.49658203125</v>
       </c>
     </row>
     <row r="142">
@@ -9093,7 +9093,7 @@
         <v>5618</v>
       </c>
       <c r="M142" t="n">
-        <v>5528.69</v>
+        <v>5997.60302734375</v>
       </c>
     </row>
     <row r="143">
@@ -9154,7 +9154,7 @@
         <v>6674</v>
       </c>
       <c r="M143" t="n">
-        <v>6810.76</v>
+        <v>7446.57177734375</v>
       </c>
     </row>
     <row r="144">
@@ -9215,7 +9215,7 @@
         <v>3898</v>
       </c>
       <c r="M144" t="n">
-        <v>4239.718333333333</v>
+        <v>3663.560546875</v>
       </c>
     </row>
     <row r="145">
@@ -9276,7 +9276,7 @@
         <v>10844</v>
       </c>
       <c r="M145" t="n">
-        <v>10980.205</v>
+        <v>11499.8193359375</v>
       </c>
     </row>
     <row r="146">
@@ -9337,7 +9337,7 @@
         <v>13381</v>
       </c>
       <c r="M146" t="n">
-        <v>13394.81</v>
+        <v>13966.4404296875</v>
       </c>
     </row>
     <row r="147">
@@ -9398,7 +9398,7 @@
         <v>11972</v>
       </c>
       <c r="M147" t="n">
-        <v>11942.80423809524</v>
+        <v>12003.0107421875</v>
       </c>
     </row>
     <row r="148">
@@ -9459,7 +9459,7 @@
         <v>17024</v>
       </c>
       <c r="M148" t="n">
-        <v>17435.5625</v>
+        <v>16657.638671875</v>
       </c>
     </row>
     <row r="149">
@@ -9520,7 +9520,7 @@
         <v>7398</v>
       </c>
       <c r="M149" t="n">
-        <v>6124.96</v>
+        <v>6261.16650390625</v>
       </c>
     </row>
     <row r="150">
@@ -9581,7 +9581,7 @@
         <v>17461</v>
       </c>
       <c r="M150" t="n">
-        <v>13735.31</v>
+        <v>18850.201171875</v>
       </c>
     </row>
     <row r="151">
@@ -9642,7 +9642,7 @@
         <v>13731</v>
       </c>
       <c r="M151" t="n">
-        <v>9832.966666666667</v>
+        <v>11979.6357421875</v>
       </c>
     </row>
     <row r="152">
@@ -9703,7 +9703,7 @@
         <v>13555</v>
       </c>
       <c r="M152" t="n">
-        <v>12850.728</v>
+        <v>12143.0576171875</v>
       </c>
     </row>
     <row r="153">
@@ -9764,7 +9764,7 @@
         <v>4804</v>
       </c>
       <c r="M153" t="n">
-        <v>4747.49</v>
+        <v>4565.40478515625</v>
       </c>
     </row>
     <row r="154">
@@ -9825,7 +9825,7 @@
         <v>16289</v>
       </c>
       <c r="M154" t="n">
-        <v>13092.14476190476</v>
+        <v>13543.6337890625</v>
       </c>
     </row>
     <row r="155">
@@ -9886,7 +9886,7 @@
         <v>7520</v>
       </c>
       <c r="M155" t="n">
-        <v>6881.58</v>
+        <v>7372.84619140625</v>
       </c>
     </row>
     <row r="156">
@@ -9947,7 +9947,7 @@
         <v>7503</v>
       </c>
       <c r="M156" t="n">
-        <v>7154.31</v>
+        <v>6952.8203125</v>
       </c>
     </row>
     <row r="157">
@@ -10008,7 +10008,7 @@
         <v>8601</v>
       </c>
       <c r="M157" t="n">
-        <v>8256.684333333333</v>
+        <v>6932.77490234375</v>
       </c>
     </row>
     <row r="158">
@@ -10069,7 +10069,7 @@
         <v>7064</v>
       </c>
       <c r="M158" t="n">
-        <v>8558.638333333334</v>
+        <v>7243.04931640625</v>
       </c>
     </row>
     <row r="159">
@@ -10130,7 +10130,7 @@
         <v>5192</v>
       </c>
       <c r="M159" t="n">
-        <v>5498.2</v>
+        <v>6412.08349609375</v>
       </c>
     </row>
     <row r="160">
@@ -10191,7 +10191,7 @@
         <v>9158</v>
       </c>
       <c r="M160" t="n">
-        <v>8301.030000000001</v>
+        <v>8264.4931640625</v>
       </c>
     </row>
     <row r="161">
@@ -10252,7 +10252,7 @@
         <v>24318</v>
       </c>
       <c r="M161" t="n">
-        <v>15597.18166666667</v>
+        <v>14660.7685546875</v>
       </c>
     </row>
     <row r="162">
@@ -10313,7 +10313,7 @@
         <v>7038</v>
       </c>
       <c r="M162" t="n">
-        <v>7555.53</v>
+        <v>7967.16796875</v>
       </c>
     </row>
     <row r="163">
@@ -10374,7 +10374,7 @@
         <v>7303</v>
       </c>
       <c r="M163" t="n">
-        <v>4787.366333333333</v>
+        <v>4865.107421875</v>
       </c>
     </row>
     <row r="164">
@@ -10435,7 +10435,7 @@
         <v>8021</v>
       </c>
       <c r="M164" t="n">
-        <v>6687.401666666668</v>
+        <v>6568.87060546875</v>
       </c>
     </row>
     <row r="165">
@@ -10496,7 +10496,7 @@
         <v>14323</v>
       </c>
       <c r="M165" t="n">
-        <v>14065.8</v>
+        <v>13452.4560546875</v>
       </c>
     </row>
     <row r="166">
@@ -10557,7 +10557,7 @@
         <v>10203</v>
       </c>
       <c r="M166" t="n">
-        <v>10261.27</v>
+        <v>11078.6240234375</v>
       </c>
     </row>
     <row r="167">
@@ -10618,7 +10618,7 @@
         <v>7408</v>
       </c>
       <c r="M167" t="n">
-        <v>6954.220999999999</v>
+        <v>7161.90771484375</v>
       </c>
     </row>
     <row r="168">
@@ -10679,7 +10679,7 @@
         <v>2227</v>
       </c>
       <c r="M168" t="n">
-        <v>2421.31</v>
+        <v>1906.785888671875</v>
       </c>
     </row>
     <row r="169">
@@ -10740,7 +10740,7 @@
         <v>16108</v>
       </c>
       <c r="M169" t="n">
-        <v>13674.82</v>
+        <v>11911.8095703125</v>
       </c>
     </row>
     <row r="170">
@@ -10801,7 +10801,7 @@
         <v>10262</v>
       </c>
       <c r="M170" t="n">
-        <v>10251.28</v>
+        <v>10858.6240234375</v>
       </c>
     </row>
     <row r="171">
@@ -10862,7 +10862,7 @@
         <v>14714</v>
       </c>
       <c r="M171" t="n">
-        <v>11245.45</v>
+        <v>13203.0751953125</v>
       </c>
     </row>
     <row r="172">
@@ -10923,7 +10923,7 @@
         <v>10262</v>
       </c>
       <c r="M172" t="n">
-        <v>12681.78033333333</v>
+        <v>13150.037109375</v>
       </c>
     </row>
     <row r="173">
@@ -10984,7 +10984,7 @@
         <v>7640</v>
       </c>
       <c r="M173" t="n">
-        <v>6941.31</v>
+        <v>7493.203125</v>
       </c>
     </row>
     <row r="174">
@@ -11045,7 +11045,7 @@
         <v>8610</v>
       </c>
       <c r="M174" t="n">
-        <v>8944.620000000001</v>
+        <v>8947.130859375</v>
       </c>
     </row>
     <row r="175">
@@ -11106,7 +11106,7 @@
         <v>12767</v>
       </c>
       <c r="M175" t="n">
-        <v>7615.440833333334</v>
+        <v>8707.4228515625</v>
       </c>
     </row>
     <row r="176">
@@ -11167,7 +11167,7 @@
         <v>6093</v>
       </c>
       <c r="M176" t="n">
-        <v>6288.7</v>
+        <v>6338.7548828125</v>
       </c>
     </row>
     <row r="177">
@@ -11228,7 +11228,7 @@
         <v>6442</v>
       </c>
       <c r="M177" t="n">
-        <v>6251.88</v>
+        <v>5287.2958984375</v>
       </c>
     </row>
     <row r="178">
@@ -11289,7 +11289,7 @@
         <v>4030</v>
       </c>
       <c r="M178" t="n">
-        <v>5796.968000000001</v>
+        <v>5856.1552734375</v>
       </c>
     </row>
     <row r="179">
@@ -11350,7 +11350,7 @@
         <v>7408</v>
       </c>
       <c r="M179" t="n">
-        <v>10340.49916666667</v>
+        <v>10267.001953125</v>
       </c>
     </row>
     <row r="180">
@@ -11411,7 +11411,7 @@
         <v>10696</v>
       </c>
       <c r="M180" t="n">
-        <v>10257.77</v>
+        <v>9963.6787109375</v>
       </c>
     </row>
     <row r="181">
@@ -11472,7 +11472,7 @@
         <v>6982</v>
       </c>
       <c r="M181" t="n">
-        <v>5090.903333333334</v>
+        <v>4777.6923828125</v>
       </c>
     </row>
     <row r="182">
@@ -11533,7 +11533,7 @@
         <v>2754</v>
       </c>
       <c r="M182" t="n">
-        <v>2991.74</v>
+        <v>2327.984130859375</v>
       </c>
     </row>
     <row r="183">
@@ -11594,7 +11594,7 @@
         <v>23677</v>
       </c>
       <c r="M183" t="n">
-        <v>15388.73</v>
+        <v>16953.09765625</v>
       </c>
     </row>
     <row r="184">
@@ -11655,7 +11655,7 @@
         <v>13227</v>
       </c>
       <c r="M184" t="n">
-        <v>13431.58</v>
+        <v>13681.33984375</v>
       </c>
     </row>
     <row r="185">
@@ -11716,7 +11716,7 @@
         <v>2754</v>
       </c>
       <c r="M185" t="n">
-        <v>2971.963333333333</v>
+        <v>2554.822265625</v>
       </c>
     </row>
     <row r="186">
@@ -11777,7 +11777,7 @@
         <v>6758</v>
       </c>
       <c r="M186" t="n">
-        <v>6945.27</v>
+        <v>6840.06591796875</v>
       </c>
     </row>
     <row r="187">
@@ -11838,7 +11838,7 @@
         <v>6934</v>
       </c>
       <c r="M187" t="n">
-        <v>6604.22</v>
+        <v>6446.15576171875</v>
       </c>
     </row>
     <row r="188">
@@ -11899,7 +11899,7 @@
         <v>18799</v>
       </c>
       <c r="M188" t="n">
-        <v>17949.235</v>
+        <v>17397.53125</v>
       </c>
     </row>
     <row r="189">
@@ -11960,7 +11960,7 @@
         <v>5678</v>
       </c>
       <c r="M189" t="n">
-        <v>2882.441666666667</v>
+        <v>3880.115966796875</v>
       </c>
     </row>
     <row r="190">
@@ -12021,7 +12021,7 @@
         <v>27992</v>
       </c>
       <c r="M190" t="n">
-        <v>28073.46</v>
+        <v>26128.10546875</v>
       </c>
     </row>
     <row r="191">
@@ -12082,7 +12082,7 @@
         <v>4544</v>
       </c>
       <c r="M191" t="n">
-        <v>5100.160595238095</v>
+        <v>4983.73779296875</v>
       </c>
     </row>
     <row r="192">
@@ -12143,7 +12143,7 @@
         <v>7757</v>
       </c>
       <c r="M192" t="n">
-        <v>11166.15116666667</v>
+        <v>11944.2060546875</v>
       </c>
     </row>
     <row r="193">
@@ -12204,7 +12204,7 @@
         <v>6373</v>
       </c>
       <c r="M193" t="n">
-        <v>5813.31</v>
+        <v>6163.37939453125</v>
       </c>
     </row>
     <row r="194">
@@ -12265,7 +12265,7 @@
         <v>13376</v>
       </c>
       <c r="M194" t="n">
-        <v>12621.30183333333</v>
+        <v>12747.3447265625</v>
       </c>
     </row>
     <row r="195">
@@ -12326,7 +12326,7 @@
         <v>5644</v>
       </c>
       <c r="M195" t="n">
-        <v>5379.78</v>
+        <v>5221.42724609375</v>
       </c>
     </row>
     <row r="196">
@@ -12387,7 +12387,7 @@
         <v>13067</v>
       </c>
       <c r="M196" t="n">
-        <v>12455.8365</v>
+        <v>12785.7578125</v>
       </c>
     </row>
     <row r="197">
@@ -12448,7 +12448,7 @@
         <v>6513</v>
       </c>
       <c r="M197" t="n">
-        <v>6664.57</v>
+        <v>6385.5458984375</v>
       </c>
     </row>
     <row r="198">
@@ -12509,7 +12509,7 @@
         <v>4392</v>
       </c>
       <c r="M198" t="n">
-        <v>2915.14</v>
+        <v>3065.64697265625</v>
       </c>
     </row>
     <row r="199">
@@ -12570,7 +12570,7 @@
         <v>4778</v>
       </c>
       <c r="M199" t="n">
-        <v>4826.393333333333</v>
+        <v>5168.46142578125</v>
       </c>
     </row>
     <row r="200">
@@ -12631,7 +12631,7 @@
         <v>10844</v>
       </c>
       <c r="M200" t="n">
-        <v>11257.96</v>
+        <v>12376.240234375</v>
       </c>
     </row>
     <row r="201">
@@ -12692,7 +12692,7 @@
         <v>12723</v>
       </c>
       <c r="M201" t="n">
-        <v>12749.04</v>
+        <v>12343.1875</v>
       </c>
     </row>
     <row r="202">
@@ -12753,7 +12753,7 @@
         <v>11134</v>
       </c>
       <c r="M202" t="n">
-        <v>13675.197</v>
+        <v>12641.50390625</v>
       </c>
     </row>
     <row r="203">
@@ -12814,7 +12814,7 @@
         <v>7229</v>
       </c>
       <c r="M203" t="n">
-        <v>6255.598333333332</v>
+        <v>6441.8515625</v>
       </c>
     </row>
     <row r="204">
@@ -12875,7 +12875,7 @@
         <v>10262</v>
       </c>
       <c r="M204" t="n">
-        <v>13485.024</v>
+        <v>11128.095703125</v>
       </c>
     </row>
     <row r="205">
@@ -12936,7 +12936,7 @@
         <v>4778</v>
       </c>
       <c r="M205" t="n">
-        <v>5414.53</v>
+        <v>5122.70068359375</v>
       </c>
     </row>
     <row r="206">
@@ -12997,7 +12997,7 @@
         <v>8033</v>
       </c>
       <c r="M206" t="n">
-        <v>6248.237333333333</v>
+        <v>5564.47509765625</v>
       </c>
     </row>
     <row r="207">
@@ -13058,7 +13058,7 @@
         <v>8425</v>
       </c>
       <c r="M207" t="n">
-        <v>7161.66</v>
+        <v>7865.05859375</v>
       </c>
     </row>
     <row r="208">
@@ -13119,7 +13119,7 @@
         <v>10919</v>
       </c>
       <c r="M208" t="n">
-        <v>11985.6455</v>
+        <v>12404.21875</v>
       </c>
     </row>
     <row r="209">
@@ -13180,7 +13180,7 @@
         <v>15411</v>
       </c>
       <c r="M209" t="n">
-        <v>15524.315</v>
+        <v>14284.94140625</v>
       </c>
     </row>
     <row r="210">
@@ -13241,7 +13241,7 @@
         <v>10975</v>
       </c>
       <c r="M210" t="n">
-        <v>10101.99</v>
+        <v>10070.947265625</v>
       </c>
     </row>
     <row r="211">
@@ -13302,7 +13302,7 @@
         <v>6535</v>
       </c>
       <c r="M211" t="n">
-        <v>11429.61</v>
+        <v>11564.8984375</v>
       </c>
     </row>
     <row r="212">
@@ -13363,7 +13363,7 @@
         <v>8355</v>
       </c>
       <c r="M212" t="n">
-        <v>6261.243833333333</v>
+        <v>7448.220703125</v>
       </c>
     </row>
     <row r="213">
@@ -13424,7 +13424,7 @@
         <v>3543</v>
       </c>
       <c r="M213" t="n">
-        <v>3570.468</v>
+        <v>3550.319580078125</v>
       </c>
     </row>
     <row r="214">
@@ -13485,7 +13485,7 @@
         <v>12102</v>
       </c>
       <c r="M214" t="n">
-        <v>12370.97</v>
+        <v>11998.3134765625</v>
       </c>
     </row>
     <row r="215">
@@ -13546,7 +13546,7 @@
         <v>9314</v>
       </c>
       <c r="M215" t="n">
-        <v>11309.765</v>
+        <v>11276.22265625</v>
       </c>
     </row>
     <row r="216">
@@ -13607,7 +13607,7 @@
         <v>7503</v>
       </c>
       <c r="M216" t="n">
-        <v>7333.7</v>
+        <v>7407.85986328125</v>
       </c>
     </row>
     <row r="217">
@@ -13668,7 +13668,7 @@
         <v>9748</v>
       </c>
       <c r="M217" t="n">
-        <v>10574.44</v>
+        <v>10527.505859375</v>
       </c>
     </row>
     <row r="218">
@@ -13729,7 +13729,7 @@
         <v>4804</v>
       </c>
       <c r="M218" t="n">
-        <v>4804.74</v>
+        <v>4787.97314453125</v>
       </c>
     </row>
     <row r="219">
@@ -13790,7 +13790,7 @@
         <v>8586</v>
       </c>
       <c r="M219" t="n">
-        <v>12960.441</v>
+        <v>13116.865234375</v>
       </c>
     </row>
     <row r="220">
@@ -13851,7 +13851,7 @@
         <v>13882</v>
       </c>
       <c r="M220" t="n">
-        <v>13359.0795</v>
+        <v>13118.2724609375</v>
       </c>
     </row>
     <row r="221">
@@ -13912,7 +13912,7 @@
         <v>7229</v>
       </c>
       <c r="M221" t="n">
-        <v>3895.9375</v>
+        <v>4527.27734375</v>
       </c>
     </row>
     <row r="222">
@@ -13973,7 +13973,7 @@
         <v>2575</v>
       </c>
       <c r="M222" t="n">
-        <v>2841.08</v>
+        <v>2948.7490234375</v>
       </c>
     </row>
     <row r="223">
@@ -14034,7 +14034,7 @@
         <v>3943</v>
       </c>
       <c r="M223" t="n">
-        <v>4053.64</v>
+        <v>4074.47119140625</v>
       </c>
     </row>
     <row r="224">
@@ -14095,7 +14095,7 @@
         <v>4760</v>
       </c>
       <c r="M224" t="n">
-        <v>5118.633333333334</v>
+        <v>5376.13720703125</v>
       </c>
     </row>
     <row r="225">
@@ -14156,7 +14156,7 @@
         <v>8824</v>
       </c>
       <c r="M225" t="n">
-        <v>13088.9425</v>
+        <v>12716.654296875</v>
       </c>
     </row>
     <row r="226">
@@ -14217,7 +14217,7 @@
         <v>6902</v>
       </c>
       <c r="M226" t="n">
-        <v>7439.18</v>
+        <v>8174.70263671875</v>
       </c>
     </row>
     <row r="227">
@@ -14278,7 +14278,7 @@
         <v>6151</v>
       </c>
       <c r="M227" t="n">
-        <v>6489.95</v>
+        <v>6676.62841796875</v>
       </c>
     </row>
     <row r="228">
@@ -14339,7 +14339,7 @@
         <v>12324</v>
       </c>
       <c r="M228" t="n">
-        <v>12192.3</v>
+        <v>11865.34375</v>
       </c>
     </row>
     <row r="229">
@@ -14400,7 +14400,7 @@
         <v>11087</v>
       </c>
       <c r="M229" t="n">
-        <v>12717.49166666667</v>
+        <v>12123.802734375</v>
       </c>
     </row>
     <row r="230">
@@ -14461,7 +14461,7 @@
         <v>5964</v>
       </c>
       <c r="M230" t="n">
-        <v>6530.47</v>
+        <v>5742.10888671875</v>
       </c>
     </row>
     <row r="231">
@@ -14522,7 +14522,7 @@
         <v>14151</v>
       </c>
       <c r="M231" t="n">
-        <v>11370.98383333333</v>
+        <v>12209.3896484375</v>
       </c>
     </row>
     <row r="232">
@@ -14583,7 +14583,7 @@
         <v>11467</v>
       </c>
       <c r="M232" t="n">
-        <v>10279.65</v>
+        <v>10748.5380859375</v>
       </c>
     </row>
     <row r="233">
@@ -14644,7 +14644,7 @@
         <v>3873</v>
       </c>
       <c r="M233" t="n">
-        <v>3846.260000000001</v>
+        <v>4069.141357421875</v>
       </c>
     </row>
     <row r="234">
@@ -14705,7 +14705,7 @@
         <v>13542</v>
       </c>
       <c r="M234" t="n">
-        <v>11173.97</v>
+        <v>10915.7939453125</v>
       </c>
     </row>
     <row r="235">
@@ -14766,7 +14766,7 @@
         <v>10844</v>
       </c>
       <c r="M235" t="n">
-        <v>13988.4075</v>
+        <v>12263.4287109375</v>
       </c>
     </row>
     <row r="236">
@@ -14827,7 +14827,7 @@
         <v>6144</v>
       </c>
       <c r="M236" t="n">
-        <v>6696.7</v>
+        <v>6052.66845703125</v>
       </c>
     </row>
     <row r="237">
@@ -14888,7 +14888,7 @@
         <v>10262</v>
       </c>
       <c r="M237" t="n">
-        <v>13275.216</v>
+        <v>13815.3662109375</v>
       </c>
     </row>
     <row r="238">
@@ -14949,7 +14949,7 @@
         <v>3383</v>
       </c>
       <c r="M238" t="n">
-        <v>4149.086666666666</v>
+        <v>3962.39404296875</v>
       </c>
     </row>
     <row r="239">
@@ -15010,7 +15010,7 @@
         <v>10413</v>
       </c>
       <c r="M239" t="n">
-        <v>10296.35</v>
+        <v>9916.55859375</v>
       </c>
     </row>
     <row r="240">
@@ -15071,7 +15071,7 @@
         <v>13994</v>
       </c>
       <c r="M240" t="n">
-        <v>13277.9635</v>
+        <v>12792.2861328125</v>
       </c>
     </row>
     <row r="241">
@@ -15132,7 +15132,7 @@
         <v>13143</v>
       </c>
       <c r="M241" t="n">
-        <v>12612.835</v>
+        <v>11943.2431640625</v>
       </c>
     </row>
     <row r="242">
@@ -15193,7 +15193,7 @@
         <v>13069</v>
       </c>
       <c r="M242" t="n">
-        <v>12206.78</v>
+        <v>10869.3583984375</v>
       </c>
     </row>
     <row r="243">
@@ -15254,7 +15254,7 @@
         <v>15129</v>
       </c>
       <c r="M243" t="n">
-        <v>15499.5925</v>
+        <v>14010.7822265625</v>
       </c>
     </row>
     <row r="244">
@@ -15315,7 +15315,7 @@
         <v>3898</v>
       </c>
       <c r="M244" t="n">
-        <v>3765.582</v>
+        <v>3556.579833984375</v>
       </c>
     </row>
     <row r="245">
@@ -15376,7 +15376,7 @@
         <v>13941</v>
       </c>
       <c r="M245" t="n">
-        <v>12658.63633333333</v>
+        <v>12274.962890625</v>
       </c>
     </row>
     <row r="246">
@@ -15437,7 +15437,7 @@
         <v>6383</v>
       </c>
       <c r="M246" t="n">
-        <v>6694.8</v>
+        <v>5458.7578125</v>
       </c>
     </row>
     <row r="247">
@@ -15498,7 +15498,7 @@
         <v>10406</v>
       </c>
       <c r="M247" t="n">
-        <v>12313.95766666667</v>
+        <v>12754.7666015625</v>
       </c>
     </row>
     <row r="248">
@@ -15559,7 +15559,7 @@
         <v>5883</v>
       </c>
       <c r="M248" t="n">
-        <v>6497.26</v>
+        <v>7085.33740234375</v>
       </c>
     </row>
     <row r="249">
@@ -15620,7 +15620,7 @@
         <v>6838</v>
       </c>
       <c r="M249" t="n">
-        <v>6872.27</v>
+        <v>6551.31494140625</v>
       </c>
     </row>
     <row r="250">
@@ -15681,7 +15681,7 @@
         <v>14781</v>
       </c>
       <c r="M250" t="n">
-        <v>11976.91166666667</v>
+        <v>13182.0126953125</v>
       </c>
     </row>
     <row r="251">
@@ -15742,7 +15742,7 @@
         <v>10577</v>
       </c>
       <c r="M251" t="n">
-        <v>12248.795</v>
+        <v>12708.431640625</v>
       </c>
     </row>
     <row r="252">
@@ -15803,7 +15803,7 @@
         <v>9646</v>
       </c>
       <c r="M252" t="n">
-        <v>12038.355</v>
+        <v>10939.283203125</v>
       </c>
     </row>
     <row r="253">
@@ -15864,7 +15864,7 @@
         <v>6216</v>
       </c>
       <c r="M253" t="n">
-        <v>6721.935</v>
+        <v>6158.85693359375</v>
       </c>
     </row>
     <row r="254">
@@ -15925,7 +15925,7 @@
         <v>9564</v>
       </c>
       <c r="M254" t="n">
-        <v>8473.461666666668</v>
+        <v>7492.7548828125</v>
       </c>
     </row>
     <row r="255">
@@ -15986,7 +15986,7 @@
         <v>14781</v>
       </c>
       <c r="M255" t="n">
-        <v>11024.30333333334</v>
+        <v>11214.9169921875</v>
       </c>
     </row>
     <row r="256">
@@ -16047,7 +16047,7 @@
         <v>7229</v>
       </c>
       <c r="M256" t="n">
-        <v>6450.155</v>
+        <v>6221.548828125</v>
       </c>
     </row>
     <row r="257">
@@ -16108,7 +16108,7 @@
         <v>4148</v>
       </c>
       <c r="M257" t="n">
-        <v>4571.72</v>
+        <v>4407.58203125</v>
       </c>
     </row>
     <row r="258">
@@ -16169,7 +16169,7 @@
         <v>7268</v>
       </c>
       <c r="M258" t="n">
-        <v>8253.459999999999</v>
+        <v>8491.865234375</v>
       </c>
     </row>
     <row r="259">
@@ -16230,7 +16230,7 @@
         <v>6245</v>
       </c>
       <c r="M259" t="n">
-        <v>5948.243333333334</v>
+        <v>6110.84130859375</v>
       </c>
     </row>
     <row r="260">
@@ -16291,7 +16291,7 @@
         <v>13376</v>
       </c>
       <c r="M260" t="n">
-        <v>12282.4125</v>
+        <v>12862.205078125</v>
       </c>
     </row>
     <row r="261">
@@ -16352,7 +16352,7 @@
         <v>4483</v>
       </c>
       <c r="M261" t="n">
-        <v>4564.526</v>
+        <v>4873.36669921875</v>
       </c>
     </row>
     <row r="262">
@@ -16413,7 +16413,7 @@
         <v>11627</v>
       </c>
       <c r="M262" t="n">
-        <v>10673.82</v>
+        <v>10274.9814453125</v>
       </c>
     </row>
     <row r="263">
@@ -16474,7 +16474,7 @@
         <v>13310</v>
       </c>
       <c r="M263" t="n">
-        <v>12422.39</v>
+        <v>10896.1025390625</v>
       </c>
     </row>
     <row r="264">
@@ -16535,7 +16535,7 @@
         <v>7754</v>
       </c>
       <c r="M264" t="n">
-        <v>8317.745000000001</v>
+        <v>7610.48876953125</v>
       </c>
     </row>
     <row r="265">
@@ -16596,7 +16596,7 @@
         <v>2754</v>
       </c>
       <c r="M265" t="n">
-        <v>3132.18</v>
+        <v>2482.89453125</v>
       </c>
     </row>
     <row r="266">
@@ -16657,7 +16657,7 @@
         <v>10231</v>
       </c>
       <c r="M266" t="n">
-        <v>10308.4</v>
+        <v>9976.3408203125</v>
       </c>
     </row>
     <row r="267">
@@ -16718,7 +16718,7 @@
         <v>10368</v>
       </c>
       <c r="M267" t="n">
-        <v>10732.64733333333</v>
+        <v>11361.3974609375</v>
       </c>
     </row>
     <row r="268">
@@ -16779,7 +16779,7 @@
         <v>11447</v>
       </c>
       <c r="M268" t="n">
-        <v>11228.95</v>
+        <v>10267.2490234375</v>
       </c>
     </row>
     <row r="269">
@@ -16840,7 +16840,7 @@
         <v>18799</v>
       </c>
       <c r="M269" t="n">
-        <v>17880.51</v>
+        <v>17663.537109375</v>
       </c>
     </row>
     <row r="270">
@@ -16901,7 +16901,7 @@
         <v>4462</v>
       </c>
       <c r="M270" t="n">
-        <v>4663.07</v>
+        <v>4997.76904296875</v>
       </c>
     </row>
     <row r="271">
@@ -16962,7 +16962,7 @@
         <v>13067</v>
       </c>
       <c r="M271" t="n">
-        <v>13566.08666666667</v>
+        <v>12888.67578125</v>
       </c>
     </row>
     <row r="272">
@@ -17023,7 +17023,7 @@
         <v>12681</v>
       </c>
       <c r="M272" t="n">
-        <v>7436.243333333334</v>
+        <v>8248.6474609375</v>
       </c>
     </row>
     <row r="273">
@@ -17084,7 +17084,7 @@
         <v>3687</v>
       </c>
       <c r="M273" t="n">
-        <v>3687</v>
+        <v>3814.9541015625</v>
       </c>
     </row>
     <row r="274">
@@ -17145,7 +17145,7 @@
         <v>6628</v>
       </c>
       <c r="M274" t="n">
-        <v>7241.58</v>
+        <v>6647.33447265625</v>
       </c>
     </row>
     <row r="275">
@@ -17206,7 +17206,7 @@
         <v>13832</v>
       </c>
       <c r="M275" t="n">
-        <v>11331.305</v>
+        <v>10811.234375</v>
       </c>
     </row>
     <row r="276">
@@ -17267,7 +17267,7 @@
         <v>6860</v>
       </c>
       <c r="M276" t="n">
-        <v>7667.585666666667</v>
+        <v>8695.884765625</v>
       </c>
     </row>
     <row r="277">
@@ -17328,7 +17328,7 @@
         <v>10676</v>
       </c>
       <c r="M277" t="n">
-        <v>10313.93</v>
+        <v>10253.595703125</v>
       </c>
     </row>
     <row r="278">
@@ -17389,7 +17389,7 @@
         <v>14714</v>
       </c>
       <c r="M278" t="n">
-        <v>11776.404</v>
+        <v>13159.2080078125</v>
       </c>
     </row>
     <row r="279">
@@ -17450,7 +17450,7 @@
         <v>10262</v>
       </c>
       <c r="M279" t="n">
-        <v>10973.1245</v>
+        <v>11051.7373046875</v>
       </c>
     </row>
     <row r="280">
@@ -17511,7 +17511,7 @@
         <v>2754</v>
       </c>
       <c r="M280" t="n">
-        <v>2940.52</v>
+        <v>2374.780029296875</v>
       </c>
     </row>
     <row r="281">
@@ -17572,7 +17572,7 @@
         <v>6785</v>
       </c>
       <c r="M281" t="n">
-        <v>10075.735</v>
+        <v>11346.86328125</v>
       </c>
     </row>
     <row r="282">
@@ -17633,7 +17633,7 @@
         <v>14067</v>
       </c>
       <c r="M282" t="n">
-        <v>12907.1895</v>
+        <v>12001.7802734375</v>
       </c>
     </row>
     <row r="283">
@@ -17694,7 +17694,7 @@
         <v>15318</v>
       </c>
       <c r="M283" t="n">
-        <v>15894.5</v>
+        <v>15845.1748046875</v>
       </c>
     </row>
     <row r="284">
@@ -17755,7 +17755,7 @@
         <v>14053</v>
       </c>
       <c r="M284" t="n">
-        <v>14959.8420952381</v>
+        <v>13202.4873046875</v>
       </c>
     </row>
     <row r="285">
@@ -17816,7 +17816,7 @@
         <v>8040</v>
       </c>
       <c r="M285" t="n">
-        <v>5501.3625</v>
+        <v>5796.07177734375</v>
       </c>
     </row>
     <row r="286">
@@ -17877,7 +17877,7 @@
         <v>12723</v>
       </c>
       <c r="M286" t="n">
-        <v>11900.15</v>
+        <v>12186.263671875</v>
       </c>
     </row>
     <row r="287">
@@ -17938,7 +17938,7 @@
         <v>10262</v>
       </c>
       <c r="M287" t="n">
-        <v>10262</v>
+        <v>10454.0244140625</v>
       </c>
     </row>
     <row r="288">
@@ -17999,7 +17999,7 @@
         <v>6151</v>
       </c>
       <c r="M288" t="n">
-        <v>6289.12</v>
+        <v>6178.97216796875</v>
       </c>
     </row>
     <row r="289">
@@ -18060,7 +18060,7 @@
         <v>5409</v>
       </c>
       <c r="M289" t="n">
-        <v>5735.69</v>
+        <v>5845.33447265625</v>
       </c>
     </row>
     <row r="290">
@@ -18121,7 +18121,7 @@
         <v>9345</v>
       </c>
       <c r="M290" t="n">
-        <v>8981.4</v>
+        <v>8595.80078125</v>
       </c>
     </row>
     <row r="291">
@@ -18182,7 +18182,7 @@
         <v>12646</v>
       </c>
       <c r="M291" t="n">
-        <v>12836.29</v>
+        <v>12505.9375</v>
       </c>
     </row>
     <row r="292">
@@ -18243,7 +18243,7 @@
         <v>11150</v>
       </c>
       <c r="M292" t="n">
-        <v>14045.6075</v>
+        <v>13596.4775390625</v>
       </c>
     </row>
     <row r="293">
@@ -18304,7 +18304,7 @@
         <v>4784</v>
       </c>
       <c r="M293" t="n">
-        <v>6044.66</v>
+        <v>6016.05078125</v>
       </c>
     </row>
     <row r="294">
@@ -18365,7 +18365,7 @@
         <v>12242</v>
       </c>
       <c r="M294" t="n">
-        <v>8281.586166666668</v>
+        <v>8812.4111328125</v>
       </c>
     </row>
     <row r="295">
@@ -18426,7 +18426,7 @@
         <v>11323</v>
       </c>
       <c r="M295" t="n">
-        <v>6105.17</v>
+        <v>6395.71728515625</v>
       </c>
     </row>
     <row r="296">
@@ -18487,7 +18487,7 @@
         <v>4409</v>
       </c>
       <c r="M296" t="n">
-        <v>4810.315</v>
+        <v>4626.11279296875</v>
       </c>
     </row>
     <row r="297">
@@ -18548,7 +18548,7 @@
         <v>16736</v>
       </c>
       <c r="M297" t="n">
-        <v>16699.25</v>
+        <v>16992.98046875</v>
       </c>
     </row>
     <row r="298">
@@ -18609,7 +18609,7 @@
         <v>3100</v>
       </c>
       <c r="M298" t="n">
-        <v>3357.08</v>
+        <v>3328.337158203125</v>
       </c>
     </row>
     <row r="299">
@@ -18670,7 +18670,7 @@
         <v>13029</v>
       </c>
       <c r="M299" t="n">
-        <v>14447.15</v>
+        <v>13954.7958984375</v>
       </c>
     </row>
     <row r="300">
@@ -18731,7 +18731,7 @@
         <v>4804</v>
       </c>
       <c r="M300" t="n">
-        <v>5350</v>
+        <v>5032.802734375</v>
       </c>
     </row>
     <row r="301">
@@ -18792,7 +18792,7 @@
         <v>9555</v>
       </c>
       <c r="M301" t="n">
-        <v>9361.639999999999</v>
+        <v>9801.763671875</v>
       </c>
     </row>
     <row r="302">
@@ -18853,7 +18853,7 @@
         <v>10262</v>
       </c>
       <c r="M302" t="n">
-        <v>10262</v>
+        <v>10629.75390625</v>
       </c>
     </row>
     <row r="303">
@@ -18914,7 +18914,7 @@
         <v>5964</v>
       </c>
       <c r="M303" t="n">
-        <v>6124.904</v>
+        <v>5263.82275390625</v>
       </c>
     </row>
     <row r="304">
@@ -18975,7 +18975,7 @@
         <v>6386</v>
       </c>
       <c r="M304" t="n">
-        <v>6271.76</v>
+        <v>6040.171875</v>
       </c>
     </row>
     <row r="305">
@@ -19036,7 +19036,7 @@
         <v>6377</v>
       </c>
       <c r="M305" t="n">
-        <v>6738.11</v>
+        <v>7861.623046875</v>
       </c>
     </row>
     <row r="306">
@@ -19097,7 +19097,7 @@
         <v>3807</v>
       </c>
       <c r="M306" t="n">
-        <v>3981.8</v>
+        <v>4150.44970703125</v>
       </c>
     </row>
     <row r="307">
@@ -19158,7 +19158,7 @@
         <v>13377</v>
       </c>
       <c r="M307" t="n">
-        <v>13313.38</v>
+        <v>12496.6318359375</v>
       </c>
     </row>
     <row r="308">
@@ -19219,7 +19219,7 @@
         <v>3841</v>
       </c>
       <c r="M308" t="n">
-        <v>3889.306666666666</v>
+        <v>4433.2685546875</v>
       </c>
     </row>
     <row r="309">
@@ -19280,7 +19280,7 @@
         <v>6528</v>
       </c>
       <c r="M309" t="n">
-        <v>6481.76</v>
+        <v>6810.58544921875</v>
       </c>
     </row>
     <row r="310">
@@ -19341,7 +19341,7 @@
         <v>3100</v>
       </c>
       <c r="M310" t="n">
-        <v>3162.53</v>
+        <v>3150.1376953125</v>
       </c>
     </row>
     <row r="311">
@@ -19402,7 +19402,7 @@
         <v>3687</v>
       </c>
       <c r="M311" t="n">
-        <v>11670</v>
+        <v>9883.017578125</v>
       </c>
     </row>
     <row r="312">
@@ -19463,7 +19463,7 @@
         <v>14815</v>
       </c>
       <c r="M312" t="n">
-        <v>14060.41666666667</v>
+        <v>14052.408203125</v>
       </c>
     </row>
     <row r="313">
@@ -19524,7 +19524,7 @@
         <v>3943</v>
       </c>
       <c r="M313" t="n">
-        <v>4120.23</v>
+        <v>3970.417236328125</v>
       </c>
     </row>
     <row r="314">
@@ -19585,7 +19585,7 @@
         <v>14714</v>
       </c>
       <c r="M314" t="n">
-        <v>11232.114</v>
+        <v>11671.8681640625</v>
       </c>
     </row>
     <row r="315">
@@ -19646,7 +19646,7 @@
         <v>4859</v>
       </c>
       <c r="M315" t="n">
-        <v>5129.2</v>
+        <v>5255.77294921875</v>
       </c>
     </row>
     <row r="316">
@@ -19707,7 +19707,7 @@
         <v>10844</v>
       </c>
       <c r="M316" t="n">
-        <v>12992.07690476191</v>
+        <v>12936.1669921875</v>
       </c>
     </row>
     <row r="317">
@@ -19768,7 +19768,7 @@
         <v>4410</v>
       </c>
       <c r="M317" t="n">
-        <v>6462.9875</v>
+        <v>6482.7919921875</v>
       </c>
     </row>
     <row r="318">
@@ -19829,7 +19829,7 @@
         <v>2754</v>
       </c>
       <c r="M318" t="n">
-        <v>2845</v>
+        <v>3372.65283203125</v>
       </c>
     </row>
     <row r="319">
@@ -19890,7 +19890,7 @@
         <v>7229</v>
       </c>
       <c r="M319" t="n">
-        <v>4952.615</v>
+        <v>5924.09228515625</v>
       </c>
     </row>
     <row r="320">
@@ -19951,7 +19951,7 @@
         <v>5694</v>
       </c>
       <c r="M320" t="n">
-        <v>4829.658333333333</v>
+        <v>5357.4931640625</v>
       </c>
     </row>
     <row r="321">
@@ -20012,7 +20012,7 @@
         <v>9424</v>
       </c>
       <c r="M321" t="n">
-        <v>8059.04</v>
+        <v>9590.66796875</v>
       </c>
     </row>
     <row r="322">
@@ -20073,7 +20073,7 @@
         <v>10262</v>
       </c>
       <c r="M322" t="n">
-        <v>10310.122</v>
+        <v>10396.1953125</v>
       </c>
     </row>
     <row r="323">
@@ -20134,7 +20134,7 @@
         <v>12199</v>
       </c>
       <c r="M323" t="n">
-        <v>12692.25</v>
+        <v>12241.919921875</v>
       </c>
     </row>
     <row r="324">
@@ -20195,7 +20195,7 @@
         <v>4668</v>
       </c>
       <c r="M324" t="n">
-        <v>4664.14</v>
+        <v>4919.63427734375</v>
       </c>
     </row>
     <row r="325">
@@ -20256,7 +20256,7 @@
         <v>7832</v>
       </c>
       <c r="M325" t="n">
-        <v>35078.59</v>
+        <v>29860.248046875</v>
       </c>
     </row>
     <row r="326">
@@ -20317,7 +20317,7 @@
         <v>4945</v>
       </c>
       <c r="M326" t="n">
-        <v>4949.462476190476</v>
+        <v>4925.015625</v>
       </c>
     </row>
     <row r="327">
@@ -20378,7 +20378,7 @@
         <v>11791</v>
       </c>
       <c r="M327" t="n">
-        <v>14853.30583333333</v>
+        <v>10807.9873046875</v>
       </c>
     </row>
     <row r="328">
@@ -20439,7 +20439,7 @@
         <v>3841</v>
       </c>
       <c r="M328" t="n">
-        <v>3895.613333333333</v>
+        <v>3930.940673828125</v>
       </c>
     </row>
     <row r="329">
@@ -20500,7 +20500,7 @@
         <v>4239</v>
       </c>
       <c r="M329" t="n">
-        <v>4270.98</v>
+        <v>4127.62255859375</v>
       </c>
     </row>
     <row r="330">
@@ -20561,7 +20561,7 @@
         <v>14815</v>
       </c>
       <c r="M330" t="n">
-        <v>14059.56</v>
+        <v>14157.693359375</v>
       </c>
     </row>
     <row r="331">
@@ -20622,7 +20622,7 @@
         <v>13014</v>
       </c>
       <c r="M331" t="n">
-        <v>12742.951</v>
+        <v>12593.6220703125</v>
       </c>
     </row>
     <row r="332">
@@ -20683,7 +20683,7 @@
         <v>11789</v>
       </c>
       <c r="M332" t="n">
-        <v>10935.06</v>
+        <v>10027.7138671875</v>
       </c>
     </row>
     <row r="333">
@@ -20744,7 +20744,7 @@
         <v>10031</v>
       </c>
       <c r="M333" t="n">
-        <v>13480.44466666667</v>
+        <v>13380.4365234375</v>
       </c>
     </row>
     <row r="334">
@@ -20805,7 +20805,7 @@
         <v>13616</v>
       </c>
       <c r="M334" t="n">
-        <v>12885.805</v>
+        <v>13051.3974609375</v>
       </c>
     </row>
     <row r="335">
@@ -20866,7 +20866,7 @@
         <v>6838</v>
       </c>
       <c r="M335" t="n">
-        <v>8366.806666666667</v>
+        <v>8356.0341796875</v>
       </c>
     </row>
     <row r="336">
@@ -20927,7 +20927,7 @@
         <v>7229</v>
       </c>
       <c r="M336" t="n">
-        <v>6028.093333333334</v>
+        <v>5815.26708984375</v>
       </c>
     </row>
     <row r="337">
@@ -20988,7 +20988,7 @@
         <v>4990</v>
       </c>
       <c r="M337" t="n">
-        <v>4391.39</v>
+        <v>4357.28515625</v>
       </c>
     </row>
     <row r="338">
@@ -21049,7 +21049,7 @@
         <v>5752</v>
       </c>
       <c r="M338" t="n">
-        <v>6274.1</v>
+        <v>6379.36962890625</v>
       </c>
     </row>
     <row r="339">
@@ -21110,7 +21110,7 @@
         <v>18191</v>
       </c>
       <c r="M339" t="n">
-        <v>16559.03</v>
+        <v>18452.884765625</v>
       </c>
     </row>
     <row r="340">
@@ -21171,7 +21171,7 @@
         <v>10539</v>
       </c>
       <c r="M340" t="n">
-        <v>12224.32916666666</v>
+        <v>10983.5</v>
       </c>
     </row>
     <row r="341">
@@ -21232,7 +21232,7 @@
         <v>8327</v>
       </c>
       <c r="M341" t="n">
-        <v>10389.07</v>
+        <v>11408.955078125</v>
       </c>
     </row>
     <row r="342">
@@ -21293,7 +21293,7 @@
         <v>10844</v>
       </c>
       <c r="M342" t="n">
-        <v>13977.95733333333</v>
+        <v>12636.091796875</v>
       </c>
     </row>
     <row r="343">
@@ -21354,7 +21354,7 @@
         <v>3873</v>
       </c>
       <c r="M343" t="n">
-        <v>3852.392666666666</v>
+        <v>3684.777099609375</v>
       </c>
     </row>
     <row r="344">
@@ -21415,7 +21415,7 @@
         <v>13555</v>
       </c>
       <c r="M344" t="n">
-        <v>12896.23633333333</v>
+        <v>12695.716796875</v>
       </c>
     </row>
     <row r="345">
@@ -21476,7 +21476,7 @@
         <v>10844</v>
       </c>
       <c r="M345" t="n">
-        <v>11423.75666666666</v>
+        <v>11928.5634765625</v>
       </c>
     </row>
     <row r="346">
@@ -21537,7 +21537,7 @@
         <v>5403</v>
       </c>
       <c r="M346" t="n">
-        <v>5446.59</v>
+        <v>5382.40576171875</v>
       </c>
     </row>
     <row r="347">
@@ -21598,7 +21598,7 @@
         <v>4145</v>
       </c>
       <c r="M347" t="n">
-        <v>4185.26</v>
+        <v>4447.26171875</v>
       </c>
     </row>
     <row r="348">
@@ -21659,7 +21659,7 @@
         <v>10577</v>
       </c>
       <c r="M348" t="n">
-        <v>11314.25433333333</v>
+        <v>12512.025390625</v>
       </c>
     </row>
     <row r="349">
@@ -21720,7 +21720,7 @@
         <v>9925</v>
       </c>
       <c r="M349" t="n">
-        <v>10948.37</v>
+        <v>11987.189453125</v>
       </c>
     </row>
     <row r="350">
@@ -21781,7 +21781,7 @@
         <v>2754</v>
       </c>
       <c r="M350" t="n">
-        <v>2770.38</v>
+        <v>2444.1376953125</v>
       </c>
     </row>
     <row r="351">
@@ -21842,7 +21842,7 @@
         <v>7662</v>
       </c>
       <c r="M351" t="n">
-        <v>7580.44</v>
+        <v>7905.25</v>
       </c>
     </row>
     <row r="352">
@@ -21903,7 +21903,7 @@
         <v>22294</v>
       </c>
       <c r="M352" t="n">
-        <v>19415.985</v>
+        <v>13869.431640625</v>
       </c>
     </row>
     <row r="353">
@@ -21964,7 +21964,7 @@
         <v>6144</v>
       </c>
       <c r="M353" t="n">
-        <v>7034.83</v>
+        <v>6479.01025390625</v>
       </c>
     </row>
     <row r="354">
@@ -22025,7 +22025,7 @@
         <v>24210</v>
       </c>
       <c r="M354" t="n">
-        <v>20363.09</v>
+        <v>21860.701171875</v>
       </c>
     </row>
     <row r="355">
@@ -22086,7 +22086,7 @@
         <v>12327</v>
       </c>
       <c r="M355" t="n">
-        <v>8274.129999999999</v>
+        <v>8951.0244140625</v>
       </c>
     </row>
     <row r="356">
@@ -22147,7 +22147,7 @@
         <v>2437</v>
       </c>
       <c r="M356" t="n">
-        <v>2536.263333333333</v>
+        <v>2839.0947265625</v>
       </c>
     </row>
     <row r="357">
@@ -22208,7 +22208,7 @@
         <v>2753</v>
       </c>
       <c r="M357" t="n">
-        <v>2612.192666666666</v>
+        <v>2395.77294921875</v>
       </c>
     </row>
     <row r="358">
@@ -22269,7 +22269,7 @@
         <v>14151</v>
       </c>
       <c r="M358" t="n">
-        <v>13798.87833333333</v>
+        <v>14284.1728515625</v>
       </c>
     </row>
     <row r="359">
@@ -22330,7 +22330,7 @@
         <v>11982</v>
       </c>
       <c r="M359" t="n">
-        <v>11982</v>
+        <v>11766.9599609375</v>
       </c>
     </row>
     <row r="360">
@@ -22391,7 +22391,7 @@
         <v>9413</v>
       </c>
       <c r="M360" t="n">
-        <v>8528.790000000001</v>
+        <v>8639.333984375</v>
       </c>
     </row>
     <row r="361">
@@ -22452,7 +22452,7 @@
         <v>13022</v>
       </c>
       <c r="M361" t="n">
-        <v>12784.45666666667</v>
+        <v>12348.2373046875</v>
       </c>
     </row>
     <row r="362">
@@ -22513,7 +22513,7 @@
         <v>3673</v>
       </c>
       <c r="M362" t="n">
-        <v>6015.41</v>
+        <v>6783.88037109375</v>
       </c>
     </row>
     <row r="363">
@@ -22574,7 +22574,7 @@
         <v>15764</v>
       </c>
       <c r="M363" t="n">
-        <v>14182.46</v>
+        <v>13792.5947265625</v>
       </c>
     </row>
     <row r="364">
@@ -22635,7 +22635,7 @@
         <v>12609</v>
       </c>
       <c r="M364" t="n">
-        <v>11553.40233333333</v>
+        <v>10858.5390625</v>
       </c>
     </row>
     <row r="365">
@@ -22696,7 +22696,7 @@
         <v>57209</v>
       </c>
       <c r="M365" t="n">
-        <v>11905.06</v>
+        <v>22659.84765625</v>
       </c>
     </row>
     <row r="366">
@@ -22757,7 +22757,7 @@
         <v>5613</v>
       </c>
       <c r="M366" t="n">
-        <v>5342.86</v>
+        <v>5516.7060546875</v>
       </c>
     </row>
     <row r="367">
@@ -22818,7 +22818,7 @@
         <v>6630</v>
       </c>
       <c r="M367" t="n">
-        <v>9594.063333333332</v>
+        <v>8211.9072265625</v>
       </c>
     </row>
     <row r="368">
@@ -22879,7 +22879,7 @@
         <v>5678</v>
       </c>
       <c r="M368" t="n">
-        <v>5317.893333333333</v>
+        <v>6065.94580078125</v>
       </c>
     </row>
     <row r="369">
@@ -22940,7 +22940,7 @@
         <v>7045</v>
       </c>
       <c r="M369" t="n">
-        <v>8150.525</v>
+        <v>7602.33056640625</v>
       </c>
     </row>
     <row r="370">
@@ -23001,7 +23001,7 @@
         <v>4148</v>
       </c>
       <c r="M370" t="n">
-        <v>4581.2</v>
+        <v>5598.326171875</v>
       </c>
     </row>
     <row r="371">
@@ -23062,7 +23062,7 @@
         <v>11003</v>
       </c>
       <c r="M371" t="n">
-        <v>11446.66</v>
+        <v>9820.654296875</v>
       </c>
     </row>
     <row r="372">
@@ -23123,7 +23123,7 @@
         <v>7480</v>
       </c>
       <c r="M372" t="n">
-        <v>7607.11</v>
+        <v>8114.025390625</v>
       </c>
     </row>
     <row r="373">
@@ -23184,7 +23184,7 @@
         <v>4804</v>
       </c>
       <c r="M373" t="n">
-        <v>4877.77</v>
+        <v>4608.59228515625</v>
       </c>
     </row>
     <row r="374">
@@ -23245,7 +23245,7 @@
         <v>4050</v>
       </c>
       <c r="M374" t="n">
-        <v>5184.521333333333</v>
+        <v>4604.40771484375</v>
       </c>
     </row>
     <row r="375">
@@ -23306,7 +23306,7 @@
         <v>6961</v>
       </c>
       <c r="M375" t="n">
-        <v>6880.94</v>
+        <v>6341.9326171875</v>
       </c>
     </row>
     <row r="376">
@@ -23367,7 +23367,7 @@
         <v>10262</v>
       </c>
       <c r="M376" t="n">
-        <v>12182.1</v>
+        <v>12203.7685546875</v>
       </c>
     </row>
     <row r="377">
@@ -23428,7 +23428,7 @@
         <v>3383</v>
       </c>
       <c r="M377" t="n">
-        <v>5954.49</v>
+        <v>4944.97021484375</v>
       </c>
     </row>
     <row r="378">
@@ -23489,7 +23489,7 @@
         <v>8119</v>
       </c>
       <c r="M378" t="n">
-        <v>9967.790000000001</v>
+        <v>9612.5029296875</v>
       </c>
     </row>
     <row r="379">
@@ -23550,7 +23550,7 @@
         <v>14714</v>
       </c>
       <c r="M379" t="n">
-        <v>11184.017</v>
+        <v>11034.3046875</v>
       </c>
     </row>
     <row r="380">
@@ -23611,7 +23611,7 @@
         <v>13259</v>
       </c>
       <c r="M380" t="n">
-        <v>11901.53</v>
+        <v>11606.90234375</v>
       </c>
     </row>
     <row r="381">
@@ -23672,7 +23672,7 @@
         <v>7222</v>
       </c>
       <c r="M381" t="n">
-        <v>7406.723000000001</v>
+        <v>7458.13427734375</v>
       </c>
     </row>
     <row r="382">
@@ -23733,7 +23733,7 @@
         <v>7353</v>
       </c>
       <c r="M382" t="n">
-        <v>8667.57</v>
+        <v>8333.3154296875</v>
       </c>
     </row>
     <row r="383">
@@ -23794,7 +23794,7 @@
         <v>14178</v>
       </c>
       <c r="M383" t="n">
-        <v>12017.71233333333</v>
+        <v>11660.4609375</v>
       </c>
     </row>
     <row r="384">
@@ -23855,7 +23855,7 @@
         <v>26890</v>
       </c>
       <c r="M384" t="n">
-        <v>23617.16</v>
+        <v>21254.80078125</v>
       </c>
     </row>
     <row r="385">
@@ -23916,7 +23916,7 @@
         <v>3625</v>
       </c>
       <c r="M385" t="n">
-        <v>3130.81</v>
+        <v>3268.98486328125</v>
       </c>
     </row>
     <row r="386">
@@ -23977,7 +23977,7 @@
         <v>9001</v>
       </c>
       <c r="M386" t="n">
-        <v>9380.08</v>
+        <v>9434.8701171875</v>
       </c>
     </row>
     <row r="387">
@@ -24038,7 +24038,7 @@
         <v>4145</v>
       </c>
       <c r="M387" t="n">
-        <v>4145.84</v>
+        <v>4500.4736328125</v>
       </c>
     </row>
     <row r="388">
@@ -24099,7 +24099,7 @@
         <v>15544</v>
       </c>
       <c r="M388" t="n">
-        <v>15928.34833333334</v>
+        <v>15587.7724609375</v>
       </c>
     </row>
     <row r="389">
@@ -24160,7 +24160,7 @@
         <v>2017</v>
       </c>
       <c r="M389" t="n">
-        <v>1980.160666666666</v>
+        <v>2094.479248046875</v>
       </c>
     </row>
     <row r="390">
@@ -24221,7 +24221,7 @@
         <v>14424</v>
       </c>
       <c r="M390" t="n">
-        <v>14179.21</v>
+        <v>13838.5791015625</v>
       </c>
     </row>
     <row r="391">
@@ -24282,7 +24282,7 @@
         <v>3514</v>
       </c>
       <c r="M391" t="n">
-        <v>3792.02</v>
+        <v>3736.107421875</v>
       </c>
     </row>
     <row r="392">
@@ -24343,7 +24343,7 @@
         <v>6628</v>
       </c>
       <c r="M392" t="n">
-        <v>6852.54</v>
+        <v>6590.091796875</v>
       </c>
     </row>
     <row r="393">
@@ -24404,7 +24404,7 @@
         <v>15339</v>
       </c>
       <c r="M393" t="n">
-        <v>12964.89277777778</v>
+        <v>13798.1318359375</v>
       </c>
     </row>
     <row r="394">
@@ -24465,7 +24465,7 @@
         <v>7591</v>
       </c>
       <c r="M394" t="n">
-        <v>6063.833333333334</v>
+        <v>5855.13037109375</v>
       </c>
     </row>
     <row r="395">
@@ -24526,7 +24526,7 @@
         <v>10262</v>
       </c>
       <c r="M395" t="n">
-        <v>11998.85</v>
+        <v>10768.5205078125</v>
       </c>
     </row>
     <row r="396">
@@ -24587,7 +24587,7 @@
         <v>10844</v>
       </c>
       <c r="M396" t="n">
-        <v>14082.34892857143</v>
+        <v>12975.814453125</v>
       </c>
     </row>
     <row r="397">
@@ -24648,7 +24648,7 @@
         <v>13014</v>
       </c>
       <c r="M397" t="n">
-        <v>11934.159</v>
+        <v>11928.6796875</v>
       </c>
     </row>
     <row r="398">
@@ -24709,7 +24709,7 @@
         <v>7872</v>
       </c>
       <c r="M398" t="n">
-        <v>7700.13</v>
+        <v>8735.1611328125</v>
       </c>
     </row>
     <row r="399">
@@ -24770,7 +24770,7 @@
         <v>6541</v>
       </c>
       <c r="M399" t="n">
-        <v>6002.8</v>
+        <v>5511.4892578125</v>
       </c>
     </row>
     <row r="400">
@@ -24831,7 +24831,7 @@
         <v>6987</v>
       </c>
       <c r="M400" t="n">
-        <v>8449.780000000001</v>
+        <v>6955.48583984375</v>
       </c>
     </row>
     <row r="401">
@@ -24892,7 +24892,7 @@
         <v>4823</v>
       </c>
       <c r="M401" t="n">
-        <v>4904.14</v>
+        <v>4797.736328125</v>
       </c>
     </row>
     <row r="402">
@@ -24953,7 +24953,7 @@
         <v>6961</v>
       </c>
       <c r="M402" t="n">
-        <v>5290.6525</v>
+        <v>4541.1943359375</v>
       </c>
     </row>
     <row r="403">
@@ -25014,7 +25014,7 @@
         <v>9899</v>
       </c>
       <c r="M403" t="n">
-        <v>12987.6055</v>
+        <v>12116.1845703125</v>
       </c>
     </row>
     <row r="404">
@@ -25075,7 +25075,7 @@
         <v>12295</v>
       </c>
       <c r="M404" t="n">
-        <v>13110.13</v>
+        <v>12912.154296875</v>
       </c>
     </row>
     <row r="405">
@@ -25136,7 +25136,7 @@
         <v>6117</v>
       </c>
       <c r="M405" t="n">
-        <v>7417.67</v>
+        <v>6183.89013671875</v>
       </c>
     </row>
     <row r="406">
@@ -25197,7 +25197,7 @@
         <v>3543</v>
       </c>
       <c r="M406" t="n">
-        <v>3627.588333333333</v>
+        <v>3390.923828125</v>
       </c>
     </row>
     <row r="407">
@@ -25258,7 +25258,7 @@
         <v>12646</v>
       </c>
       <c r="M407" t="n">
-        <v>13189.37</v>
+        <v>13589.087890625</v>
       </c>
     </row>
     <row r="408">
@@ -25319,7 +25319,7 @@
         <v>3919</v>
       </c>
       <c r="M408" t="n">
-        <v>4213.805714285714</v>
+        <v>4254.91943359375</v>
       </c>
     </row>
     <row r="409">
@@ -25380,7 +25380,7 @@
         <v>6982</v>
       </c>
       <c r="M409" t="n">
-        <v>8329.35</v>
+        <v>8802.1328125</v>
       </c>
     </row>
     <row r="410">
@@ -25441,7 +25441,7 @@
         <v>13100</v>
       </c>
       <c r="M410" t="n">
-        <v>12417.02</v>
+        <v>12799.8564453125</v>
       </c>
     </row>
     <row r="411">
@@ -25502,7 +25502,7 @@
         <v>16079</v>
       </c>
       <c r="M411" t="n">
-        <v>12157.27166666667</v>
+        <v>12572.5166015625</v>
       </c>
     </row>
     <row r="412">
@@ -25563,7 +25563,7 @@
         <v>13082</v>
       </c>
       <c r="M412" t="n">
-        <v>14688.32</v>
+        <v>13186.150390625</v>
       </c>
     </row>
     <row r="413">
@@ -25624,7 +25624,7 @@
         <v>6121</v>
       </c>
       <c r="M413" t="n">
-        <v>5680.478999999999</v>
+        <v>6059.267578125</v>
       </c>
     </row>
     <row r="414">
@@ -25685,7 +25685,7 @@
         <v>4823</v>
       </c>
       <c r="M414" t="n">
-        <v>4993.18</v>
+        <v>5072.517578125</v>
       </c>
     </row>
     <row r="415">
@@ -25746,7 +25746,7 @@
         <v>13941</v>
       </c>
       <c r="M415" t="n">
-        <v>9554.401666666667</v>
+        <v>11005.4208984375</v>
       </c>
     </row>
     <row r="416">
@@ -25807,7 +25807,7 @@
         <v>4544</v>
       </c>
       <c r="M416" t="n">
-        <v>6767.8625</v>
+        <v>6581.552734375</v>
       </c>
     </row>
     <row r="417">
@@ -25868,7 +25868,7 @@
         <v>4145</v>
       </c>
       <c r="M417" t="n">
-        <v>4484.92</v>
+        <v>4548.39013671875</v>
       </c>
     </row>
     <row r="418">
@@ -25929,7 +25929,7 @@
         <v>3919</v>
       </c>
       <c r="M418" t="n">
-        <v>3998.376666666667</v>
+        <v>3926.280517578125</v>
       </c>
     </row>
     <row r="419">
@@ -25990,7 +25990,7 @@
         <v>11982</v>
       </c>
       <c r="M419" t="n">
-        <v>11982</v>
+        <v>11806.1015625</v>
       </c>
     </row>
     <row r="420">
@@ -26051,7 +26051,7 @@
         <v>5636</v>
       </c>
       <c r="M420" t="n">
-        <v>5875.68</v>
+        <v>5705.482421875</v>
       </c>
     </row>
     <row r="421">
@@ -26112,7 +26112,7 @@
         <v>8656</v>
       </c>
       <c r="M421" t="n">
-        <v>8803.41</v>
+        <v>8644.875</v>
       </c>
     </row>
     <row r="422">
@@ -26173,7 +26173,7 @@
         <v>10844</v>
       </c>
       <c r="M422" t="n">
-        <v>13938.74666666667</v>
+        <v>12436.068359375</v>
       </c>
     </row>
     <row r="423">
@@ -26234,7 +26234,7 @@
         <v>9856</v>
       </c>
       <c r="M423" t="n">
-        <v>10514.64</v>
+        <v>9740.79296875</v>
       </c>
     </row>
     <row r="424">
@@ -26295,7 +26295,7 @@
         <v>3943</v>
       </c>
       <c r="M424" t="n">
-        <v>4248.74</v>
+        <v>4093.64892578125</v>
       </c>
     </row>
     <row r="425">
@@ -26356,7 +26356,7 @@
         <v>11570</v>
       </c>
       <c r="M425" t="n">
-        <v>12578.38</v>
+        <v>14666.3759765625</v>
       </c>
     </row>
     <row r="426">
@@ -26417,7 +26417,7 @@
         <v>4409</v>
       </c>
       <c r="M426" t="n">
-        <v>4229.7</v>
+        <v>4235.41015625</v>
       </c>
     </row>
     <row r="427">
@@ -26478,7 +26478,7 @@
         <v>6934</v>
       </c>
       <c r="M427" t="n">
-        <v>6789.12</v>
+        <v>7234.34912109375</v>
       </c>
     </row>
     <row r="428">
@@ -26539,7 +26539,7 @@
         <v>13817</v>
       </c>
       <c r="M428" t="n">
-        <v>12275.07166666667</v>
+        <v>12601.3857421875</v>
       </c>
     </row>
     <row r="429">
@@ -26600,7 +26600,7 @@
         <v>12121</v>
       </c>
       <c r="M429" t="n">
-        <v>10284.12416666667</v>
+        <v>11823.646484375</v>
       </c>
     </row>
     <row r="430">
@@ -26661,7 +26661,7 @@
         <v>4804</v>
       </c>
       <c r="M430" t="n">
-        <v>4804.19</v>
+        <v>4801.7158203125</v>
       </c>
     </row>
     <row r="431">
@@ -26722,7 +26722,7 @@
         <v>5769</v>
       </c>
       <c r="M431" t="n">
-        <v>7636.028</v>
+        <v>6973.69189453125</v>
       </c>
     </row>
     <row r="432">
@@ -26783,7 +26783,7 @@
         <v>4174</v>
       </c>
       <c r="M432" t="n">
-        <v>3943.702</v>
+        <v>4169.63916015625</v>
       </c>
     </row>
     <row r="433">
@@ -26844,7 +26844,7 @@
         <v>6309</v>
       </c>
       <c r="M433" t="n">
-        <v>5257.106031746033</v>
+        <v>5055.54638671875</v>
       </c>
     </row>
     <row r="434">
@@ -26905,7 +26905,7 @@
         <v>1965</v>
       </c>
       <c r="M434" t="n">
-        <v>2004.972333333333</v>
+        <v>2333.2119140625</v>
       </c>
     </row>
     <row r="435">
@@ -26966,7 +26966,7 @@
         <v>10406</v>
       </c>
       <c r="M435" t="n">
-        <v>11048.157</v>
+        <v>12659.6044921875</v>
       </c>
     </row>
     <row r="436">
@@ -27027,7 +27027,7 @@
         <v>8996</v>
       </c>
       <c r="M436" t="n">
-        <v>8262.3475</v>
+        <v>7868.314453125</v>
       </c>
     </row>
     <row r="437">
@@ -27088,7 +27088,7 @@
         <v>10844</v>
       </c>
       <c r="M437" t="n">
-        <v>12024.34216666666</v>
+        <v>12281.1201171875</v>
       </c>
     </row>
     <row r="438">
@@ -27149,7 +27149,7 @@
         <v>13377</v>
       </c>
       <c r="M438" t="n">
-        <v>12740.615</v>
+        <v>12180.7529296875</v>
       </c>
     </row>
     <row r="439">
@@ -27210,7 +27210,7 @@
         <v>8479</v>
       </c>
       <c r="M439" t="n">
-        <v>8033.52</v>
+        <v>10039.6337890625</v>
       </c>
     </row>
     <row r="440">
@@ -27271,7 +27271,7 @@
         <v>31825</v>
       </c>
       <c r="M440" t="n">
-        <v>32202.31</v>
+        <v>29297.3515625</v>
       </c>
     </row>
     <row r="441">
@@ -27332,7 +27332,7 @@
         <v>5706</v>
       </c>
       <c r="M441" t="n">
-        <v>5935.070777777777</v>
+        <v>4821.482421875</v>
       </c>
     </row>
     <row r="442">
@@ -27393,7 +27393,7 @@
         <v>12284</v>
       </c>
       <c r="M442" t="n">
-        <v>11400.508</v>
+        <v>11219.197265625</v>
       </c>
     </row>
     <row r="443">
@@ -27454,7 +27454,7 @@
         <v>4544</v>
       </c>
       <c r="M443" t="n">
-        <v>6365.372416666667</v>
+        <v>6071.98583984375</v>
       </c>
     </row>
     <row r="444">
@@ -27515,7 +27515,7 @@
         <v>6017</v>
       </c>
       <c r="M444" t="n">
-        <v>11458.29666666667</v>
+        <v>10457.0478515625</v>
       </c>
     </row>
     <row r="445">
@@ -27576,7 +27576,7 @@
         <v>14781</v>
       </c>
       <c r="M445" t="n">
-        <v>13266.72816666667</v>
+        <v>12288.5615234375</v>
       </c>
     </row>
     <row r="446">
@@ -27637,7 +27637,7 @@
         <v>12646</v>
       </c>
       <c r="M446" t="n">
-        <v>12401.7</v>
+        <v>12642.544921875</v>
       </c>
     </row>
     <row r="447">
@@ -27698,7 +27698,7 @@
         <v>3858</v>
       </c>
       <c r="M447" t="n">
-        <v>3875.448</v>
+        <v>4296.1962890625</v>
       </c>
     </row>
     <row r="448">
@@ -27759,7 +27759,7 @@
         <v>4957</v>
       </c>
       <c r="M448" t="n">
-        <v>4948.35</v>
+        <v>4975.9921875</v>
       </c>
     </row>
     <row r="449">
@@ -27820,7 +27820,7 @@
         <v>10262</v>
       </c>
       <c r="M449" t="n">
-        <v>10249.47</v>
+        <v>10207.21875</v>
       </c>
     </row>
     <row r="450">
@@ -27881,7 +27881,7 @@
         <v>10031</v>
       </c>
       <c r="M450" t="n">
-        <v>13270.13166666667</v>
+        <v>12524.603515625</v>
       </c>
     </row>
     <row r="451">
@@ -27942,7 +27942,7 @@
         <v>14388</v>
       </c>
       <c r="M451" t="n">
-        <v>10002.3925</v>
+        <v>11175.7353515625</v>
       </c>
     </row>
     <row r="452">
@@ -28003,7 +28003,7 @@
         <v>10844</v>
       </c>
       <c r="M452" t="n">
-        <v>10680.84533333333</v>
+        <v>10145.4091796875</v>
       </c>
     </row>
     <row r="453">
@@ -28064,7 +28064,7 @@
         <v>8882</v>
       </c>
       <c r="M453" t="n">
-        <v>8792.27025</v>
+        <v>10087.203125</v>
       </c>
     </row>
     <row r="454">
@@ -28125,7 +28125,7 @@
         <v>13014</v>
       </c>
       <c r="M454" t="n">
-        <v>11267.9675</v>
+        <v>11611.625</v>
       </c>
     </row>
     <row r="455">
@@ -28186,7 +28186,7 @@
         <v>8366</v>
       </c>
       <c r="M455" t="n">
-        <v>8794.309999999999</v>
+        <v>9114.30859375</v>
       </c>
     </row>
     <row r="456">
@@ -28247,7 +28247,7 @@
         <v>6015</v>
       </c>
       <c r="M456" t="n">
-        <v>6044.73</v>
+        <v>5680.990234375</v>
       </c>
     </row>
     <row r="457">
@@ -28308,7 +28308,7 @@
         <v>20694</v>
       </c>
       <c r="M457" t="n">
-        <v>19667.9925</v>
+        <v>17975.474609375</v>
       </c>
     </row>
     <row r="458">
@@ -28369,7 +28369,7 @@
         <v>17024</v>
       </c>
       <c r="M458" t="n">
-        <v>17245.65</v>
+        <v>17997.42578125</v>
       </c>
     </row>
     <row r="459">
@@ -28430,7 +28430,7 @@
         <v>14762</v>
       </c>
       <c r="M459" t="n">
-        <v>25374.65</v>
+        <v>21620.73046875</v>
       </c>
     </row>
     <row r="460">
@@ -28491,7 +28491,7 @@
         <v>3625</v>
       </c>
       <c r="M460" t="n">
-        <v>3372.48</v>
+        <v>3262.83642578125</v>
       </c>
     </row>
     <row r="461">
@@ -28552,7 +28552,7 @@
         <v>2227</v>
       </c>
       <c r="M461" t="n">
-        <v>2464.96</v>
+        <v>2797.503173828125</v>
       </c>
     </row>
     <row r="462">
@@ -28613,7 +28613,7 @@
         <v>4804</v>
       </c>
       <c r="M462" t="n">
-        <v>4812.04</v>
+        <v>4825.21826171875</v>
       </c>
     </row>
     <row r="463">
@@ -28674,7 +28674,7 @@
         <v>5678</v>
       </c>
       <c r="M463" t="n">
-        <v>4054.64</v>
+        <v>4437.90625</v>
       </c>
     </row>
     <row r="464">
@@ -28735,7 +28735,7 @@
         <v>2470</v>
       </c>
       <c r="M464" t="n">
-        <v>5621.608333333334</v>
+        <v>5743.30029296875</v>
       </c>
     </row>
     <row r="465">
@@ -28796,7 +28796,7 @@
         <v>12284</v>
       </c>
       <c r="M465" t="n">
-        <v>12802.098</v>
+        <v>12582.8212890625</v>
       </c>
     </row>
     <row r="466">
@@ -28857,7 +28857,7 @@
         <v>3419</v>
       </c>
       <c r="M466" t="n">
-        <v>3776.57</v>
+        <v>3667.294921875</v>
       </c>
     </row>
     <row r="467">
@@ -28918,7 +28918,7 @@
         <v>12767</v>
       </c>
       <c r="M467" t="n">
-        <v>8865.127999999999</v>
+        <v>9779.9814453125</v>
       </c>
     </row>
     <row r="468">
@@ -28979,7 +28979,7 @@
         <v>4668</v>
       </c>
       <c r="M468" t="n">
-        <v>4976.7</v>
+        <v>5052.48583984375</v>
       </c>
     </row>
     <row r="469">
@@ -29040,7 +29040,7 @@
         <v>3625</v>
       </c>
       <c r="M469" t="n">
-        <v>4219.941714285714</v>
+        <v>4261.15625</v>
       </c>
     </row>
     <row r="470">
@@ -29101,7 +29101,7 @@
         <v>3597</v>
       </c>
       <c r="M470" t="n">
-        <v>3554.367</v>
+        <v>3395.047607421875</v>
       </c>
     </row>
     <row r="471">
@@ -29162,7 +29162,7 @@
         <v>5224</v>
       </c>
       <c r="M471" t="n">
-        <v>4882.09</v>
+        <v>4487.37158203125</v>
       </c>
     </row>
     <row r="472">
@@ -29223,7 +29223,7 @@
         <v>6147</v>
       </c>
       <c r="M472" t="n">
-        <v>6369.54</v>
+        <v>5871.818359375</v>
       </c>
     </row>
     <row r="473">
@@ -29284,7 +29284,7 @@
         <v>8016</v>
       </c>
       <c r="M473" t="n">
-        <v>4551.7475</v>
+        <v>6156.505859375</v>
       </c>
     </row>
     <row r="474">
@@ -29345,7 +29345,7 @@
         <v>11148</v>
       </c>
       <c r="M474" t="n">
-        <v>10697.33</v>
+        <v>10202.8173828125</v>
       </c>
     </row>
     <row r="475">
@@ -29406,7 +29406,7 @@
         <v>13376</v>
       </c>
       <c r="M475" t="n">
-        <v>11722.48378571429</v>
+        <v>11683.0869140625</v>
       </c>
     </row>
     <row r="476">
@@ -29467,7 +29467,7 @@
         <v>12488</v>
       </c>
       <c r="M476" t="n">
-        <v>12287.59</v>
+        <v>12305.3408203125</v>
       </c>
     </row>
     <row r="477">
@@ -29528,7 +29528,7 @@
         <v>6017</v>
       </c>
       <c r="M477" t="n">
-        <v>8865.127999999999</v>
+        <v>9779.9814453125</v>
       </c>
     </row>
     <row r="478">
@@ -29589,7 +29589,7 @@
         <v>4823</v>
       </c>
       <c r="M478" t="n">
-        <v>4814.38</v>
+        <v>4650.5</v>
       </c>
     </row>
     <row r="479">
@@ -29650,7 +29650,7 @@
         <v>7532</v>
       </c>
       <c r="M479" t="n">
-        <v>6386.54</v>
+        <v>7312.3271484375</v>
       </c>
     </row>
     <row r="480">
@@ -29711,7 +29711,7 @@
         <v>11432</v>
       </c>
       <c r="M480" t="n">
-        <v>11755.275</v>
+        <v>11505.3720703125</v>
       </c>
     </row>
     <row r="481">
@@ -29772,7 +29772,7 @@
         <v>5088</v>
       </c>
       <c r="M481" t="n">
-        <v>4880.1</v>
+        <v>4892.1474609375</v>
       </c>
     </row>
     <row r="482">
@@ -29833,7 +29833,7 @@
         <v>5351</v>
       </c>
       <c r="M482" t="n">
-        <v>6776.65</v>
+        <v>6127.6767578125</v>
       </c>
     </row>
     <row r="483">
@@ -29894,7 +29894,7 @@
         <v>8610</v>
       </c>
       <c r="M483" t="n">
-        <v>8969.309999999999</v>
+        <v>9165.7919921875</v>
       </c>
     </row>
     <row r="484">
@@ -29955,7 +29955,7 @@
         <v>17271</v>
       </c>
       <c r="M484" t="n">
-        <v>16479.415</v>
+        <v>17492.33203125</v>
       </c>
     </row>
     <row r="485">
@@ -30016,7 +30016,7 @@
         <v>9314</v>
       </c>
       <c r="M485" t="n">
-        <v>11823.4825</v>
+        <v>11758.80078125</v>
       </c>
     </row>
     <row r="486">
@@ -30077,7 +30077,7 @@
         <v>3847</v>
       </c>
       <c r="M486" t="n">
-        <v>3973.334666666667</v>
+        <v>3909.066650390625</v>
       </c>
     </row>
     <row r="487">
@@ -30138,7 +30138,7 @@
         <v>8372</v>
       </c>
       <c r="M487" t="n">
-        <v>8769.309999999999</v>
+        <v>9679.4892578125</v>
       </c>
     </row>
     <row r="488">
@@ -30199,7 +30199,7 @@
         <v>10877</v>
       </c>
       <c r="M488" t="n">
-        <v>10839.4</v>
+        <v>10032.3046875</v>
       </c>
     </row>
     <row r="489">
@@ -30260,7 +30260,7 @@
         <v>4423</v>
       </c>
       <c r="M489" t="n">
-        <v>4572.437333333333</v>
+        <v>4496.39501953125</v>
       </c>
     </row>
     <row r="490">
@@ -30321,7 +30321,7 @@
         <v>6297</v>
       </c>
       <c r="M490" t="n">
-        <v>5574.45</v>
+        <v>5706.2666015625</v>
       </c>
     </row>
     <row r="491">
@@ -30382,7 +30382,7 @@
         <v>6216</v>
       </c>
       <c r="M491" t="n">
-        <v>6200.73</v>
+        <v>6119.57958984375</v>
       </c>
     </row>
     <row r="492">
@@ -30443,7 +30443,7 @@
         <v>7933</v>
       </c>
       <c r="M492" t="n">
-        <v>11732.3180952381</v>
+        <v>11154.044921875</v>
       </c>
     </row>
     <row r="493">
@@ -30504,7 +30504,7 @@
         <v>10678</v>
       </c>
       <c r="M493" t="n">
-        <v>10330.68</v>
+        <v>9725.580078125</v>
       </c>
     </row>
     <row r="494">
@@ -30565,7 +30565,7 @@
         <v>2017</v>
       </c>
       <c r="M494" t="n">
-        <v>2002.314</v>
+        <v>2219.09912109375</v>
       </c>
     </row>
     <row r="495">
@@ -30626,7 +30626,7 @@
         <v>5000</v>
       </c>
       <c r="M495" t="n">
-        <v>5596.58</v>
+        <v>5681.77294921875</v>
       </c>
     </row>
     <row r="496">
@@ -30687,7 +30687,7 @@
         <v>18736</v>
       </c>
       <c r="M496" t="n">
-        <v>12511.765</v>
+        <v>13132.189453125</v>
       </c>
     </row>
     <row r="497">
@@ -30748,7 +30748,7 @@
         <v>4030</v>
       </c>
       <c r="M497" t="n">
-        <v>6921.796666666666</v>
+        <v>6449.49853515625</v>
       </c>
     </row>
     <row r="498">
@@ -30809,7 +30809,7 @@
         <v>10368</v>
       </c>
       <c r="M498" t="n">
-        <v>13235.12666666667</v>
+        <v>13931.314453125</v>
       </c>
     </row>
     <row r="499">
@@ -30870,7 +30870,7 @@
         <v>9663</v>
       </c>
       <c r="M499" t="n">
-        <v>11051.0085</v>
+        <v>11336.9638671875</v>
       </c>
     </row>
     <row r="500">
@@ -30931,7 +30931,7 @@
         <v>5613</v>
       </c>
       <c r="M500" t="n">
-        <v>5712.75</v>
+        <v>5747.22705078125</v>
       </c>
     </row>
     <row r="501">
@@ -30992,7 +30992,7 @@
         <v>7757</v>
       </c>
       <c r="M501" t="n">
-        <v>10207.75366666667</v>
+        <v>11408.419921875</v>
       </c>
     </row>
     <row r="502">
@@ -31053,7 +31053,7 @@
         <v>6442</v>
       </c>
       <c r="M502" t="n">
-        <v>6505.3</v>
+        <v>5874.07568359375</v>
       </c>
     </row>
     <row r="503">
@@ -31114,7 +31114,7 @@
         <v>2754</v>
       </c>
       <c r="M503" t="n">
-        <v>3608.99</v>
+        <v>2358.94970703125</v>
       </c>
     </row>
     <row r="504">
@@ -31175,7 +31175,7 @@
         <v>3758</v>
       </c>
       <c r="M504" t="n">
-        <v>4732.96</v>
+        <v>5374.65478515625</v>
       </c>
     </row>
     <row r="505">
@@ -31236,7 +31236,7 @@
         <v>6152</v>
       </c>
       <c r="M505" t="n">
-        <v>7142.9</v>
+        <v>6940.49755859375</v>
       </c>
     </row>
     <row r="506">
@@ -31297,7 +31297,7 @@
         <v>7618</v>
       </c>
       <c r="M506" t="n">
-        <v>7919.828833333333</v>
+        <v>7839.18212890625</v>
       </c>
     </row>
     <row r="507">
@@ -31358,7 +31358,7 @@
         <v>12646</v>
       </c>
       <c r="M507" t="n">
-        <v>12971.96</v>
+        <v>13568.306640625</v>
       </c>
     </row>
     <row r="508">
@@ -31419,7 +31419,7 @@
         <v>14781</v>
       </c>
       <c r="M508" t="n">
-        <v>12722.795</v>
+        <v>12484.4814453125</v>
       </c>
     </row>
     <row r="509">
@@ -31480,7 +31480,7 @@
         <v>13377</v>
       </c>
       <c r="M509" t="n">
-        <v>9226.194666666666</v>
+        <v>9227.826171875</v>
       </c>
     </row>
     <row r="510">
@@ -31541,7 +31541,7 @@
         <v>9564</v>
       </c>
       <c r="M510" t="n">
-        <v>7798.528666666667</v>
+        <v>7597.0703125</v>
       </c>
     </row>
     <row r="511">
@@ -31602,7 +31602,7 @@
         <v>6113</v>
       </c>
       <c r="M511" t="n">
-        <v>6499.243</v>
+        <v>6350.419921875</v>
       </c>
     </row>
     <row r="512">
@@ -31663,7 +31663,7 @@
         <v>26480</v>
       </c>
       <c r="M512" t="n">
-        <v>19203.335</v>
+        <v>21502.4921875</v>
       </c>
     </row>
     <row r="513">
@@ -31724,7 +31724,7 @@
         <v>5769</v>
       </c>
       <c r="M513" t="n">
-        <v>7763.55</v>
+        <v>6837.59814453125</v>
       </c>
     </row>
     <row r="514">
@@ -31785,7 +31785,7 @@
         <v>1759</v>
       </c>
       <c r="M514" t="n">
-        <v>2359.626</v>
+        <v>1540.954711914062</v>
       </c>
     </row>
     <row r="515">
@@ -31846,7 +31846,7 @@
         <v>5883</v>
       </c>
       <c r="M515" t="n">
-        <v>6126.95</v>
+        <v>6037.771484375</v>
       </c>
     </row>
     <row r="516">
@@ -31907,7 +31907,7 @@
         <v>5176</v>
       </c>
       <c r="M516" t="n">
-        <v>5563.74</v>
+        <v>6492.09375</v>
       </c>
     </row>
     <row r="517">
@@ -31968,7 +31968,7 @@
         <v>4804</v>
       </c>
       <c r="M517" t="n">
-        <v>4876.13</v>
+        <v>5133.17724609375</v>
       </c>
     </row>
     <row r="518">
@@ -32029,7 +32029,7 @@
         <v>3398</v>
       </c>
       <c r="M518" t="n">
-        <v>3874.736666666667</v>
+        <v>3343.64111328125</v>
       </c>
     </row>
     <row r="519">
@@ -32090,7 +32090,7 @@
         <v>9416</v>
       </c>
       <c r="M519" t="n">
-        <v>10834.04</v>
+        <v>11232.115234375</v>
       </c>
     </row>
     <row r="520">
@@ -32151,7 +32151,7 @@
         <v>3841</v>
       </c>
       <c r="M520" t="n">
-        <v>3871.26</v>
+        <v>3745.020263671875</v>
       </c>
     </row>
     <row r="521">
@@ -32212,7 +32212,7 @@
         <v>10262</v>
       </c>
       <c r="M521" t="n">
-        <v>10381.6</v>
+        <v>10876.1572265625</v>
       </c>
     </row>
     <row r="522">
@@ -32273,7 +32273,7 @@
         <v>4804</v>
       </c>
       <c r="M522" t="n">
-        <v>4825</v>
+        <v>4928.04736328125</v>
       </c>
     </row>
     <row r="523">
@@ -32334,7 +32334,7 @@
         <v>5177</v>
       </c>
       <c r="M523" t="n">
-        <v>5672.62</v>
+        <v>6718.27099609375</v>
       </c>
     </row>
     <row r="524">
@@ -32395,7 +32395,7 @@
         <v>2437</v>
       </c>
       <c r="M524" t="n">
-        <v>2250.1</v>
+        <v>2391.626708984375</v>
       </c>
     </row>
     <row r="525">
@@ -32456,7 +32456,7 @@
         <v>8422</v>
       </c>
       <c r="M525" t="n">
-        <v>9726.913333333334</v>
+        <v>8250.767578125</v>
       </c>
     </row>
     <row r="526">
@@ -32517,7 +32517,7 @@
         <v>13797</v>
       </c>
       <c r="M526" t="n">
-        <v>9944.358</v>
+        <v>10447.1396484375</v>
       </c>
     </row>
     <row r="527">
@@ -32578,7 +32578,7 @@
         <v>10368</v>
       </c>
       <c r="M527" t="n">
-        <v>11934.159</v>
+        <v>11928.6796875</v>
       </c>
     </row>
     <row r="528">
@@ -32639,7 +32639,7 @@
         <v>7081</v>
       </c>
       <c r="M528" t="n">
-        <v>7147.77</v>
+        <v>6833.048828125</v>
       </c>
     </row>
     <row r="529">
@@ -32700,7 +32700,7 @@
         <v>8513</v>
       </c>
       <c r="M529" t="n">
-        <v>9221.57</v>
+        <v>8818.021484375</v>
       </c>
     </row>
     <row r="530">
@@ -32761,7 +32761,7 @@
         <v>7229</v>
       </c>
       <c r="M530" t="n">
-        <v>6495.693571428572</v>
+        <v>6419.34228515625</v>
       </c>
     </row>
     <row r="531">
@@ -32822,7 +32822,7 @@
         <v>6273</v>
       </c>
       <c r="M531" t="n">
-        <v>8485.610000000001</v>
+        <v>6988.78662109375</v>
       </c>
     </row>
     <row r="532">
@@ -32883,7 +32883,7 @@
         <v>3100</v>
       </c>
       <c r="M532" t="n">
-        <v>3181</v>
+        <v>2896.3837890625</v>
       </c>
     </row>
     <row r="533">
@@ -32944,7 +32944,7 @@
         <v>4804</v>
       </c>
       <c r="M533" t="n">
-        <v>4818.7</v>
+        <v>4636.85205078125</v>
       </c>
     </row>
     <row r="534">
@@ -33005,7 +33005,7 @@
         <v>7229</v>
       </c>
       <c r="M534" t="n">
-        <v>7194.94</v>
+        <v>7404.912109375</v>
       </c>
     </row>
     <row r="535">
@@ -33066,7 +33066,7 @@
         <v>3841</v>
       </c>
       <c r="M535" t="n">
-        <v>4187.018666666667</v>
+        <v>4298.2529296875</v>
       </c>
     </row>
     <row r="536">
@@ -33127,7 +33127,7 @@
         <v>8586</v>
       </c>
       <c r="M536" t="n">
-        <v>13265.205</v>
+        <v>12674.08203125</v>
       </c>
     </row>
     <row r="537">
@@ -33188,7 +33188,7 @@
         <v>11200</v>
       </c>
       <c r="M537" t="n">
-        <v>11031.11666666666</v>
+        <v>10987.357421875</v>
       </c>
     </row>
     <row r="538">
@@ -33249,7 +33249,7 @@
         <v>17267</v>
       </c>
       <c r="M538" t="n">
-        <v>15294.785</v>
+        <v>14214.59375</v>
       </c>
     </row>
     <row r="539">
@@ -33310,7 +33310,7 @@
         <v>8586</v>
       </c>
       <c r="M539" t="n">
-        <v>13312.35833333333</v>
+        <v>11383.5400390625</v>
       </c>
     </row>
     <row r="540">
@@ -33371,7 +33371,7 @@
         <v>11432</v>
       </c>
       <c r="M540" t="n">
-        <v>11944.775</v>
+        <v>12668.896484375</v>
       </c>
     </row>
     <row r="541">
@@ -33432,7 +33432,7 @@
         <v>12940</v>
       </c>
       <c r="M541" t="n">
-        <v>11646.65</v>
+        <v>11958.17578125</v>
       </c>
     </row>
     <row r="542">
@@ -33493,7 +33493,7 @@
         <v>12475</v>
       </c>
       <c r="M542" t="n">
-        <v>17092.87</v>
+        <v>11783.3681640625</v>
       </c>
     </row>
     <row r="543">
@@ -33554,7 +33554,7 @@
         <v>11134</v>
       </c>
       <c r="M543" t="n">
-        <v>12347.876</v>
+        <v>11184.951171875</v>
       </c>
     </row>
     <row r="544">
@@ -33615,7 +33615,7 @@
         <v>5644</v>
       </c>
       <c r="M544" t="n">
-        <v>4726.33</v>
+        <v>4833.33837890625</v>
       </c>
     </row>
     <row r="545">
@@ -33676,7 +33676,7 @@
         <v>10877</v>
       </c>
       <c r="M545" t="n">
-        <v>11049.56</v>
+        <v>10109.939453125</v>
       </c>
     </row>
     <row r="546">
@@ -33737,7 +33737,7 @@
         <v>7229</v>
       </c>
       <c r="M546" t="n">
-        <v>5234.504333333333</v>
+        <v>6006.93701171875</v>
       </c>
     </row>
     <row r="547">
@@ -33798,7 +33798,7 @@
         <v>8586</v>
       </c>
       <c r="M547" t="n">
-        <v>13021.71083333333</v>
+        <v>11694.7958984375</v>
       </c>
     </row>
     <row r="548">
@@ -33859,7 +33859,7 @@
         <v>10368</v>
       </c>
       <c r="M548" t="n">
-        <v>12289.48292857143</v>
+        <v>12396.744140625</v>
       </c>
     </row>
     <row r="549">
@@ -33920,7 +33920,7 @@
         <v>9863</v>
       </c>
       <c r="M549" t="n">
-        <v>10313.48</v>
+        <v>10625.857421875</v>
       </c>
     </row>
     <row r="550">
@@ -33981,7 +33981,7 @@
         <v>4864</v>
       </c>
       <c r="M550" t="n">
-        <v>5473.29</v>
+        <v>5966.9482421875</v>
       </c>
     </row>
     <row r="551">
@@ -34042,7 +34042,7 @@
         <v>4384</v>
       </c>
       <c r="M551" t="n">
-        <v>4454.795</v>
+        <v>4047.40966796875</v>
       </c>
     </row>
     <row r="552">
@@ -34103,7 +34103,7 @@
         <v>13591</v>
       </c>
       <c r="M552" t="n">
-        <v>14046.37</v>
+        <v>13701.3564453125</v>
       </c>
     </row>
     <row r="553">
@@ -34164,7 +34164,7 @@
         <v>12384</v>
       </c>
       <c r="M553" t="n">
-        <v>12963.10766666667</v>
+        <v>11815.369140625</v>
       </c>
     </row>
     <row r="554">
@@ -34225,7 +34225,7 @@
         <v>12373</v>
       </c>
       <c r="M554" t="n">
-        <v>12375.80666666667</v>
+        <v>12967.5556640625</v>
       </c>
     </row>
     <row r="555">
@@ -34286,7 +34286,7 @@
         <v>10368</v>
       </c>
       <c r="M555" t="n">
-        <v>11716.1935</v>
+        <v>12284.669921875</v>
       </c>
     </row>
     <row r="556">
@@ -34347,7 +34347,7 @@
         <v>12723</v>
       </c>
       <c r="M556" t="n">
-        <v>12513.89</v>
+        <v>13605.919921875</v>
       </c>
     </row>
     <row r="557">
@@ -34408,7 +34408,7 @@
         <v>12242</v>
       </c>
       <c r="M557" t="n">
-        <v>9940.748166666668</v>
+        <v>9599.86328125</v>
       </c>
     </row>
     <row r="558">
@@ -34469,7 +34469,7 @@
         <v>5769</v>
       </c>
       <c r="M558" t="n">
-        <v>7047.244666666666</v>
+        <v>7091.13232421875</v>
       </c>
     </row>
     <row r="559">
@@ -34530,7 +34530,7 @@
         <v>7006</v>
       </c>
       <c r="M559" t="n">
-        <v>7139.55</v>
+        <v>7691.70751953125</v>
       </c>
     </row>
     <row r="560">
@@ -34591,7 +34591,7 @@
         <v>8372</v>
       </c>
       <c r="M560" t="n">
-        <v>8681.32</v>
+        <v>8518.74609375</v>
       </c>
     </row>
     <row r="561">
@@ -34652,7 +34652,7 @@
         <v>14178</v>
       </c>
       <c r="M561" t="n">
-        <v>10595.28166666667</v>
+        <v>10848.9111328125</v>
       </c>
     </row>
     <row r="562">
@@ -34713,7 +34713,7 @@
         <v>20800</v>
       </c>
       <c r="M562" t="n">
-        <v>28489.91</v>
+        <v>24584.46484375</v>
       </c>
     </row>
     <row r="563">
@@ -34774,7 +34774,7 @@
         <v>8452</v>
       </c>
       <c r="M563" t="n">
-        <v>8431.370000000001</v>
+        <v>8501.7119140625</v>
       </c>
     </row>
     <row r="564">
@@ -34835,7 +34835,7 @@
         <v>10844</v>
       </c>
       <c r="M564" t="n">
-        <v>11041.658</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="565">
@@ -34896,7 +34896,7 @@
         <v>4668</v>
       </c>
       <c r="M565" t="n">
-        <v>4834.95</v>
+        <v>5107.4111328125</v>
       </c>
     </row>
     <row r="566">
@@ -34957,7 +34957,7 @@
         <v>12681</v>
       </c>
       <c r="M566" t="n">
-        <v>7886.816333333333</v>
+        <v>7926.54736328125</v>
       </c>
     </row>
     <row r="567">
@@ -35018,7 +35018,7 @@
         <v>4487</v>
       </c>
       <c r="M567" t="n">
-        <v>5302.89</v>
+        <v>4418.4892578125</v>
       </c>
     </row>
     <row r="568">
@@ -35079,7 +35079,7 @@
         <v>14571</v>
       </c>
       <c r="M568" t="n">
-        <v>11300.23</v>
+        <v>12981.9287109375</v>
       </c>
     </row>
     <row r="569">
@@ -35140,7 +35140,7 @@
         <v>3841</v>
       </c>
       <c r="M569" t="n">
-        <v>3895.398333333333</v>
+        <v>4083.852294921875</v>
       </c>
     </row>
     <row r="570">
@@ -35201,7 +35201,7 @@
         <v>3873</v>
       </c>
       <c r="M570" t="n">
-        <v>3853.494666666666</v>
+        <v>3804.39208984375</v>
       </c>
     </row>
     <row r="571">
@@ -35262,7 +35262,7 @@
         <v>16372</v>
       </c>
       <c r="M571" t="n">
-        <v>14192.235</v>
+        <v>13415.6015625</v>
       </c>
     </row>
     <row r="572">
@@ -35323,7 +35323,7 @@
         <v>14897</v>
       </c>
       <c r="M572" t="n">
-        <v>14543.8275</v>
+        <v>14840.3662109375</v>
       </c>
     </row>
     <row r="573">
@@ -35384,7 +35384,7 @@
         <v>8614</v>
       </c>
       <c r="M573" t="n">
-        <v>7726.27</v>
+        <v>7686.90771484375</v>
       </c>
     </row>
     <row r="574">
@@ -35445,7 +35445,7 @@
         <v>9653</v>
       </c>
       <c r="M574" t="n">
-        <v>9770.82</v>
+        <v>9678.607421875</v>
       </c>
     </row>
     <row r="575">
@@ -35506,7 +35506,7 @@
         <v>3574</v>
       </c>
       <c r="M575" t="n">
-        <v>3932.5</v>
+        <v>4380.71630859375</v>
       </c>
     </row>
     <row r="576">
@@ -35567,7 +35567,7 @@
         <v>7064</v>
       </c>
       <c r="M576" t="n">
-        <v>12338.408</v>
+        <v>10588.1640625</v>
       </c>
     </row>
     <row r="577">
@@ -35628,7 +35628,7 @@
         <v>5755</v>
       </c>
       <c r="M577" t="n">
-        <v>4141.71</v>
+        <v>4617.30908203125</v>
       </c>
     </row>
     <row r="578">
@@ -35689,7 +35689,7 @@
         <v>13432</v>
       </c>
       <c r="M578" t="n">
-        <v>14414.16</v>
+        <v>13901.48828125</v>
       </c>
     </row>
     <row r="579">
@@ -35750,7 +35750,7 @@
         <v>8669</v>
       </c>
       <c r="M579" t="n">
-        <v>8759.27</v>
+        <v>9270.40234375</v>
       </c>
     </row>
     <row r="580">
@@ -35811,7 +35811,7 @@
         <v>17057</v>
       </c>
       <c r="M580" t="n">
-        <v>16058.7245</v>
+        <v>18414.990234375</v>
       </c>
     </row>
     <row r="581">
@@ -35872,7 +35872,7 @@
         <v>17261</v>
       </c>
       <c r="M581" t="n">
-        <v>15470.57866666666</v>
+        <v>16079.99609375</v>
       </c>
     </row>
     <row r="582">
@@ -35933,7 +35933,7 @@
         <v>6795</v>
       </c>
       <c r="M582" t="n">
-        <v>7504.29</v>
+        <v>7665.1728515625</v>
       </c>
     </row>
     <row r="583">
@@ -35994,7 +35994,7 @@
         <v>9663</v>
       </c>
       <c r="M583" t="n">
-        <v>12613.48583333333</v>
+        <v>12297.888671875</v>
       </c>
     </row>
     <row r="584">
@@ -36055,7 +36055,7 @@
         <v>11789</v>
       </c>
       <c r="M584" t="n">
-        <v>11499.65</v>
+        <v>11031.7197265625</v>
       </c>
     </row>
     <row r="585">
@@ -36116,7 +36116,7 @@
         <v>10262</v>
       </c>
       <c r="M585" t="n">
-        <v>10262</v>
+        <v>10836.7001953125</v>
       </c>
     </row>
     <row r="586">
@@ -36177,7 +36177,7 @@
         <v>8844</v>
       </c>
       <c r="M586" t="n">
-        <v>10999.57</v>
+        <v>9760.5986328125</v>
       </c>
     </row>
     <row r="587">
@@ -36238,7 +36238,7 @@
         <v>4544</v>
       </c>
       <c r="M587" t="n">
-        <v>6989.691666666667</v>
+        <v>6205.201171875</v>
       </c>
     </row>
     <row r="588">
@@ -36299,7 +36299,7 @@
         <v>6148</v>
       </c>
       <c r="M588" t="n">
-        <v>7800.145</v>
+        <v>8192.2421875</v>
       </c>
     </row>
     <row r="589">
@@ -36360,7 +36360,7 @@
         <v>2227</v>
       </c>
       <c r="M589" t="n">
-        <v>2296.3</v>
+        <v>2414.94189453125</v>
       </c>
     </row>
     <row r="590">
@@ -36421,7 +36421,7 @@
         <v>13292</v>
       </c>
       <c r="M590" t="n">
-        <v>12956.39497619048</v>
+        <v>12098.048828125</v>
       </c>
     </row>
     <row r="591">
@@ -36482,7 +36482,7 @@
         <v>3383</v>
       </c>
       <c r="M591" t="n">
-        <v>4684.835</v>
+        <v>4624.75390625</v>
       </c>
     </row>
     <row r="592">
@@ -36543,7 +36543,7 @@
         <v>14300</v>
       </c>
       <c r="M592" t="n">
-        <v>13754.44166666667</v>
+        <v>14011.6533203125</v>
       </c>
     </row>
     <row r="593">
@@ -36604,7 +36604,7 @@
         <v>10844</v>
       </c>
       <c r="M593" t="n">
-        <v>11909.49583333333</v>
+        <v>12098.1240234375</v>
       </c>
     </row>
     <row r="594">
@@ -36665,7 +36665,7 @@
         <v>5158</v>
       </c>
       <c r="M594" t="n">
-        <v>5242.516666666666</v>
+        <v>5833.4892578125</v>
       </c>
     </row>
     <row r="595">
@@ -36726,7 +36726,7 @@
         <v>12819</v>
       </c>
       <c r="M595" t="n">
-        <v>12521.05917460318</v>
+        <v>13155.939453125</v>
       </c>
     </row>
     <row r="596">
@@ -36787,7 +36787,7 @@
         <v>6628</v>
       </c>
       <c r="M596" t="n">
-        <v>6411.23</v>
+        <v>8487.0615234375</v>
       </c>
     </row>
     <row r="597">
@@ -36848,7 +36848,7 @@
         <v>10262</v>
       </c>
       <c r="M597" t="n">
-        <v>10278.66</v>
+        <v>10254.88671875</v>
       </c>
     </row>
     <row r="598">
@@ -36909,7 +36909,7 @@
         <v>4544</v>
       </c>
       <c r="M598" t="n">
-        <v>6947.924714285715</v>
+        <v>6084.56005859375</v>
       </c>
     </row>
     <row r="599">
@@ -36970,7 +36970,7 @@
         <v>12373</v>
       </c>
       <c r="M599" t="n">
-        <v>14926.7375</v>
+        <v>13956.9580078125</v>
       </c>
     </row>
     <row r="600">
@@ -37031,7 +37031,7 @@
         <v>11281</v>
       </c>
       <c r="M600" t="n">
-        <v>10784.15</v>
+        <v>11511.802734375</v>
       </c>
     </row>
     <row r="601">
@@ -37092,7 +37092,7 @@
         <v>6938</v>
       </c>
       <c r="M601" t="n">
-        <v>6930.65</v>
+        <v>7057.517578125</v>
       </c>
     </row>
     <row r="602">
@@ -37153,7 +37153,7 @@
         <v>15147</v>
       </c>
       <c r="M602" t="n">
-        <v>15045.50333333333</v>
+        <v>13156.1767578125</v>
       </c>
     </row>
     <row r="603">
@@ -37214,7 +37214,7 @@
         <v>11228</v>
       </c>
       <c r="M603" t="n">
-        <v>10482.64</v>
+        <v>11463.599609375</v>
       </c>
     </row>
     <row r="604">
@@ -37275,7 +37275,7 @@
         <v>5636</v>
       </c>
       <c r="M604" t="n">
-        <v>5829.59</v>
+        <v>5783.41943359375</v>
       </c>
     </row>
     <row r="605">
@@ -37336,7 +37336,7 @@
         <v>4319</v>
       </c>
       <c r="M605" t="n">
-        <v>4572.437333333333</v>
+        <v>4496.39501953125</v>
       </c>
     </row>
     <row r="606">
@@ -37397,7 +37397,7 @@
         <v>6144</v>
       </c>
       <c r="M606" t="n">
-        <v>6225.751999999999</v>
+        <v>6066.93994140625</v>
       </c>
     </row>
     <row r="607">
@@ -37458,7 +37458,7 @@
         <v>14781</v>
       </c>
       <c r="M607" t="n">
-        <v>12205.43476190476</v>
+        <v>11668.1875</v>
       </c>
     </row>
     <row r="608">
@@ -37519,7 +37519,7 @@
         <v>8765</v>
       </c>
       <c r="M608" t="n">
-        <v>7539.653333333333</v>
+        <v>8272.267578125</v>
       </c>
     </row>
     <row r="609">
@@ -37580,7 +37580,7 @@
         <v>8586</v>
       </c>
       <c r="M609" t="n">
-        <v>13540.795</v>
+        <v>12292.099609375</v>
       </c>
     </row>
     <row r="610">
@@ -37641,7 +37641,7 @@
         <v>2754</v>
       </c>
       <c r="M610" t="n">
-        <v>2801.06</v>
+        <v>3250.19287109375</v>
       </c>
     </row>
     <row r="611">
@@ -37702,7 +37702,7 @@
         <v>3597</v>
       </c>
       <c r="M611" t="n">
-        <v>3616.83</v>
+        <v>3695.197265625</v>
       </c>
     </row>
     <row r="612">
@@ -37763,7 +37763,7 @@
         <v>4050</v>
       </c>
       <c r="M612" t="n">
-        <v>5834.869999999999</v>
+        <v>6290.11328125</v>
       </c>
     </row>
     <row r="613">
@@ -37824,7 +37824,7 @@
         <v>11087</v>
       </c>
       <c r="M613" t="n">
-        <v>10748.375</v>
+        <v>14002.13671875</v>
       </c>
     </row>
     <row r="614">
@@ -37885,7 +37885,7 @@
         <v>8016</v>
       </c>
       <c r="M614" t="n">
-        <v>7500.317833333332</v>
+        <v>7642.79052734375</v>
       </c>
     </row>
     <row r="615">
@@ -37946,7 +37946,7 @@
         <v>15147</v>
       </c>
       <c r="M615" t="n">
-        <v>15547.52166666667</v>
+        <v>14630.447265625</v>
       </c>
     </row>
     <row r="616">
@@ -38007,7 +38007,7 @@
         <v>7229</v>
       </c>
       <c r="M616" t="n">
-        <v>4946.868333333333</v>
+        <v>5443.17919921875</v>
       </c>
     </row>
     <row r="617">
@@ -38068,7 +38068,7 @@
         <v>13014</v>
       </c>
       <c r="M617" t="n">
-        <v>10793.469</v>
+        <v>11819.619140625</v>
       </c>
     </row>
     <row r="618">
@@ -38129,7 +38129,7 @@
         <v>2754</v>
       </c>
       <c r="M618" t="n">
-        <v>2871.42</v>
+        <v>3152.35693359375</v>
       </c>
     </row>
     <row r="619">
@@ -38190,7 +38190,7 @@
         <v>5613</v>
       </c>
       <c r="M619" t="n">
-        <v>5608.8</v>
+        <v>5837.02392578125</v>
       </c>
     </row>
     <row r="620">
@@ -38251,7 +38251,7 @@
         <v>6307</v>
       </c>
       <c r="M620" t="n">
-        <v>6031.83</v>
+        <v>5430.5146484375</v>
       </c>
     </row>
     <row r="621">
@@ -38312,7 +38312,7 @@
         <v>4174</v>
       </c>
       <c r="M621" t="n">
-        <v>4174</v>
+        <v>4219.30517578125</v>
       </c>
     </row>
     <row r="622">
@@ -38373,7 +38373,7 @@
         <v>4804</v>
       </c>
       <c r="M622" t="n">
-        <v>4820.8</v>
+        <v>4798.35986328125</v>
       </c>
     </row>
     <row r="623">
@@ -38434,7 +38434,7 @@
         <v>14960</v>
       </c>
       <c r="M623" t="n">
-        <v>14120.76</v>
+        <v>13901.724609375</v>
       </c>
     </row>
     <row r="624">
@@ -38495,7 +38495,7 @@
         <v>9483</v>
       </c>
       <c r="M624" t="n">
-        <v>12727.70666666667</v>
+        <v>12612.7802734375</v>
       </c>
     </row>
     <row r="625">
@@ -38556,7 +38556,7 @@
         <v>8662</v>
       </c>
       <c r="M625" t="n">
-        <v>8621.549999999999</v>
+        <v>8283.7392578125</v>
       </c>
     </row>
     <row r="626">
@@ -38617,7 +38617,7 @@
         <v>19644</v>
       </c>
       <c r="M626" t="n">
-        <v>18357.46666666667</v>
+        <v>18984.83984375</v>
       </c>
     </row>
     <row r="627">
@@ -38678,7 +38678,7 @@
         <v>4340</v>
       </c>
       <c r="M627" t="n">
-        <v>5157.516666666666</v>
+        <v>4508.13916015625</v>
       </c>
     </row>
     <row r="628">
@@ -38739,7 +38739,7 @@
         <v>10844</v>
       </c>
       <c r="M628" t="n">
-        <v>11642.515</v>
+        <v>11874.865234375</v>
       </c>
     </row>
     <row r="629">
@@ -38800,7 +38800,7 @@
         <v>8224</v>
       </c>
       <c r="M629" t="n">
-        <v>8472.85</v>
+        <v>7945.6103515625</v>
       </c>
     </row>
     <row r="630">
@@ -38861,7 +38861,7 @@
         <v>7905</v>
       </c>
       <c r="M630" t="n">
-        <v>13266.105</v>
+        <v>12051.234375</v>
       </c>
     </row>
     <row r="631">
@@ -38922,7 +38922,7 @@
         <v>11134</v>
       </c>
       <c r="M631" t="n">
-        <v>13595.84</v>
+        <v>13217.263671875</v>
       </c>
     </row>
     <row r="632">
@@ -38983,7 +38983,7 @@
         <v>6037</v>
       </c>
       <c r="M632" t="n">
-        <v>6462.32</v>
+        <v>5844.46435546875</v>
       </c>
     </row>
     <row r="633">
@@ -39044,7 +39044,7 @@
         <v>12692</v>
       </c>
       <c r="M633" t="n">
-        <v>11138.6095</v>
+        <v>12402.1708984375</v>
       </c>
     </row>
     <row r="634">
@@ -39105,7 +39105,7 @@
         <v>7308</v>
       </c>
       <c r="M634" t="n">
-        <v>12797.445</v>
+        <v>12618.2255859375</v>
       </c>
     </row>
     <row r="635">
@@ -39166,7 +39166,7 @@
         <v>11733</v>
       </c>
       <c r="M635" t="n">
-        <v>11572.166</v>
+        <v>11789.2275390625</v>
       </c>
     </row>
     <row r="636">
@@ -39227,7 +39227,7 @@
         <v>14714</v>
       </c>
       <c r="M636" t="n">
-        <v>10990.382</v>
+        <v>10569.3955078125</v>
       </c>
     </row>
     <row r="637">
@@ -39288,7 +39288,7 @@
         <v>14388</v>
       </c>
       <c r="M637" t="n">
-        <v>11518.21316666667</v>
+        <v>11639.51953125</v>
       </c>
     </row>
     <row r="638">
@@ -39349,7 +39349,7 @@
         <v>7229</v>
       </c>
       <c r="M638" t="n">
-        <v>5217.066488095238</v>
+        <v>5879.26513671875</v>
       </c>
     </row>
     <row r="639">
@@ -39410,7 +39410,7 @@
         <v>7832</v>
       </c>
       <c r="M639" t="n">
-        <v>7899.59</v>
+        <v>9203.0537109375</v>
       </c>
     </row>
     <row r="640">
@@ -39471,7 +39471,7 @@
         <v>10493</v>
       </c>
       <c r="M640" t="n">
-        <v>11511.25</v>
+        <v>11538.798828125</v>
       </c>
     </row>
     <row r="641">
@@ -39532,7 +39532,7 @@
         <v>14053</v>
       </c>
       <c r="M641" t="n">
-        <v>15530.112</v>
+        <v>14824.5732421875</v>
       </c>
     </row>
     <row r="642">
@@ -39593,7 +39593,7 @@
         <v>7295</v>
       </c>
       <c r="M642" t="n">
-        <v>7116.023333333334</v>
+        <v>6696.5341796875</v>
       </c>
     </row>
     <row r="643">
@@ -39654,7 +39654,7 @@
         <v>11222</v>
       </c>
       <c r="M643" t="n">
-        <v>11373.23</v>
+        <v>10973.4658203125</v>
       </c>
     </row>
     <row r="644">
@@ -39715,7 +39715,7 @@
         <v>7670</v>
       </c>
       <c r="M644" t="n">
-        <v>8322.959999999999</v>
+        <v>8176.521484375</v>
       </c>
     </row>
     <row r="645">
@@ -39776,7 +39776,7 @@
         <v>10877</v>
       </c>
       <c r="M645" t="n">
-        <v>11227.14</v>
+        <v>10383.470703125</v>
       </c>
     </row>
     <row r="646">
@@ -39837,7 +39837,7 @@
         <v>17057</v>
       </c>
       <c r="M646" t="n">
-        <v>16178.22378571428</v>
+        <v>17270.37890625</v>
       </c>
     </row>
     <row r="647">
@@ -39898,7 +39898,7 @@
         <v>11507</v>
       </c>
       <c r="M647" t="n">
-        <v>11716.1935</v>
+        <v>12284.669921875</v>
       </c>
     </row>
     <row r="648">
@@ -39959,7 +39959,7 @@
         <v>4466</v>
       </c>
       <c r="M648" t="n">
-        <v>8540.455</v>
+        <v>9257.3544921875</v>
       </c>
     </row>
     <row r="649">
@@ -40020,7 +40020,7 @@
         <v>13801</v>
       </c>
       <c r="M649" t="n">
-        <v>12837.71</v>
+        <v>14237.58203125</v>
       </c>
     </row>
     <row r="650">
@@ -40081,7 +40081,7 @@
         <v>4778</v>
       </c>
       <c r="M650" t="n">
-        <v>5744.69</v>
+        <v>6743.5927734375</v>
       </c>
     </row>
     <row r="651">
@@ -40142,7 +40142,7 @@
         <v>12384</v>
       </c>
       <c r="M651" t="n">
-        <v>12957.86333333333</v>
+        <v>12388.1279296875</v>
       </c>
     </row>
     <row r="652">
@@ -40203,7 +40203,7 @@
         <v>10678</v>
       </c>
       <c r="M652" t="n">
-        <v>10036.24</v>
+        <v>9407.2568359375</v>
       </c>
     </row>
     <row r="653">
@@ -40264,7 +40264,7 @@
         <v>9790</v>
       </c>
       <c r="M653" t="n">
-        <v>11694.01666666667</v>
+        <v>11337.2236328125</v>
       </c>
     </row>
     <row r="654">
@@ -40325,7 +40325,7 @@
         <v>14388</v>
       </c>
       <c r="M654" t="n">
-        <v>10311.87833333333</v>
+        <v>10819.216796875</v>
       </c>
     </row>
     <row r="655">
@@ -40386,7 +40386,7 @@
         <v>4319</v>
       </c>
       <c r="M655" t="n">
-        <v>4152.45</v>
+        <v>3806.249755859375</v>
       </c>
     </row>
     <row r="656">
@@ -40447,7 +40447,7 @@
         <v>5678</v>
       </c>
       <c r="M656" t="n">
-        <v>4632.811190476191</v>
+        <v>4226.64501953125</v>
       </c>
     </row>
     <row r="657">
@@ -40508,7 +40508,7 @@
         <v>5613</v>
       </c>
       <c r="M657" t="n">
-        <v>5363.41</v>
+        <v>5443.52978515625</v>
       </c>
     </row>
     <row r="658">
@@ -40569,7 +40569,7 @@
         <v>9663</v>
       </c>
       <c r="M658" t="n">
-        <v>13053.0685</v>
+        <v>11751.083984375</v>
       </c>
     </row>
     <row r="659">
@@ -40630,7 +40630,7 @@
         <v>5769</v>
       </c>
       <c r="M659" t="n">
-        <v>7888.911333333333</v>
+        <v>7692.13134765625</v>
       </c>
     </row>
     <row r="660">
@@ -40691,7 +40691,7 @@
         <v>4668</v>
       </c>
       <c r="M660" t="n">
-        <v>5194.05</v>
+        <v>5164.46533203125</v>
       </c>
     </row>
     <row r="661">
@@ -40752,7 +40752,7 @@
         <v>4878</v>
       </c>
       <c r="M661" t="n">
-        <v>5588.2375</v>
+        <v>5729.7041015625</v>
       </c>
     </row>
     <row r="662">
@@ -40813,7 +40813,7 @@
         <v>8372</v>
       </c>
       <c r="M662" t="n">
-        <v>8656.280000000001</v>
+        <v>9676.82421875</v>
       </c>
     </row>
     <row r="663">
@@ -40874,7 +40874,7 @@
         <v>12352</v>
       </c>
       <c r="M663" t="n">
-        <v>12664.88</v>
+        <v>12291.2919921875</v>
       </c>
     </row>
     <row r="664">
@@ -40935,7 +40935,7 @@
         <v>11733</v>
       </c>
       <c r="M664" t="n">
-        <v>11442.03783333333</v>
+        <v>12129.0419921875</v>
       </c>
     </row>
     <row r="665">
@@ -40996,7 +40996,7 @@
         <v>4823</v>
       </c>
       <c r="M665" t="n">
-        <v>5051.33</v>
+        <v>4317.51123046875</v>
       </c>
     </row>
     <row r="666">
@@ -41057,7 +41057,7 @@
         <v>4804</v>
       </c>
       <c r="M666" t="n">
-        <v>4762.39</v>
+        <v>4458.9169921875</v>
       </c>
     </row>
     <row r="667">
@@ -41118,7 +41118,7 @@
         <v>10262</v>
       </c>
       <c r="M667" t="n">
-        <v>10616.9825</v>
+        <v>11696.0458984375</v>
       </c>
     </row>
     <row r="668">
@@ -41179,7 +41179,7 @@
         <v>11087</v>
       </c>
       <c r="M668" t="n">
-        <v>11348.42</v>
+        <v>10927.4033203125</v>
       </c>
     </row>
     <row r="669">
@@ -41240,7 +41240,7 @@
         <v>21219</v>
       </c>
       <c r="M669" t="n">
-        <v>18357.46666666667</v>
+        <v>18984.83984375</v>
       </c>
     </row>
     <row r="670">
@@ -41301,7 +41301,7 @@
         <v>9929</v>
       </c>
       <c r="M670" t="n">
-        <v>9292.049999999999</v>
+        <v>9606.375</v>
       </c>
     </row>
     <row r="671">
@@ -41362,7 +41362,7 @@
         <v>11411</v>
       </c>
       <c r="M671" t="n">
-        <v>12453.63</v>
+        <v>11999.1357421875</v>
       </c>
     </row>
     <row r="672">
@@ -41423,7 +41423,7 @@
         <v>3100</v>
       </c>
       <c r="M672" t="n">
-        <v>3089.5</v>
+        <v>2886.279296875</v>
       </c>
     </row>
     <row r="673">
@@ -41484,7 +41484,7 @@
         <v>11150</v>
       </c>
       <c r="M673" t="n">
-        <v>12020.21792460318</v>
+        <v>11700.2080078125</v>
       </c>
     </row>
     <row r="674">
@@ -41545,7 +41545,7 @@
         <v>16704</v>
       </c>
       <c r="M674" t="n">
-        <v>16526.725</v>
+        <v>15552.03515625</v>
       </c>
     </row>
     <row r="675">
@@ -41606,7 +41606,7 @@
         <v>11087</v>
       </c>
       <c r="M675" t="n">
-        <v>11318.34</v>
+        <v>12064.88671875</v>
       </c>
     </row>
     <row r="676">
@@ -41667,7 +41667,7 @@
         <v>3100</v>
       </c>
       <c r="M676" t="n">
-        <v>3148</v>
+        <v>3187.6943359375</v>
       </c>
     </row>
     <row r="677">
@@ -41728,7 +41728,7 @@
         <v>9794</v>
       </c>
       <c r="M677" t="n">
-        <v>10003.29</v>
+        <v>9808.9677734375</v>
       </c>
     </row>
     <row r="678">
@@ -41789,7 +41789,7 @@
         <v>3257</v>
       </c>
       <c r="M678" t="n">
-        <v>3384.071666666667</v>
+        <v>3431.893798828125</v>
       </c>
     </row>
     <row r="679">
@@ -41850,7 +41850,7 @@
         <v>4107</v>
       </c>
       <c r="M679" t="n">
-        <v>4053.99</v>
+        <v>3949.72998046875</v>
       </c>
     </row>
     <row r="680">
@@ -41911,7 +41911,7 @@
         <v>4145</v>
       </c>
       <c r="M680" t="n">
-        <v>4346.72</v>
+        <v>4428.5</v>
       </c>
     </row>
     <row r="681">
@@ -41972,7 +41972,7 @@
         <v>7229</v>
       </c>
       <c r="M681" t="n">
-        <v>5769.969499999999</v>
+        <v>6147.419921875</v>
       </c>
     </row>
     <row r="682">
@@ -42033,7 +42033,7 @@
         <v>12648</v>
       </c>
       <c r="M682" t="n">
-        <v>15429.56</v>
+        <v>14775.90625</v>
       </c>
     </row>
     <row r="683">
@@ -42094,7 +42094,7 @@
         <v>11753</v>
       </c>
       <c r="M683" t="n">
-        <v>12873.49</v>
+        <v>12676.294921875</v>
       </c>
     </row>
   </sheetData>
